--- a/Data/IMUReadingsClip/DefenderDrag3bOutside.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag3bOutside.xlsx
@@ -15,7 +15,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -83,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,14 +141,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,37 +180,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -15404,19 +15456,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">

--- a/Data/IMUReadingsClip/DefenderDrag3bOutside.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag3bOutside.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="accel" sheetId="2" r:id="rId3"/>
     <sheet name="orientation" sheetId="3" r:id="rId5"/>
+    <sheet name="gyro" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -112,6 +113,69 @@
   <si>
     <t>pitchDeg</t>
   </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,16 +207,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,37 +250,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -15456,19 +15526,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -22868,4 +22938,7432 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E436"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="20.16796875" customWidth="true"/>
+    <col min="3" max="3" width="7.7109375" customWidth="true"/>
+    <col min="4" max="4" width="7.07421875" customWidth="true"/>
+    <col min="5" max="5" width="8.44140625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1676592471475</v>
+      </c>
+      <c r="B2" s="0">
+        <v>119975105768688</v>
+      </c>
+      <c r="C2" s="0">
+        <v>256</v>
+      </c>
+      <c r="D2" s="0">
+        <v>56</v>
+      </c>
+      <c r="E2" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1676592471483</v>
+      </c>
+      <c r="B3" s="0">
+        <v>119975114747692</v>
+      </c>
+      <c r="C3" s="0">
+        <v>256</v>
+      </c>
+      <c r="D3" s="0">
+        <v>56</v>
+      </c>
+      <c r="E3" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1676592471493</v>
+      </c>
+      <c r="B4" s="0">
+        <v>119975123727855</v>
+      </c>
+      <c r="C4" s="0">
+        <v>256</v>
+      </c>
+      <c r="D4" s="0">
+        <v>57</v>
+      </c>
+      <c r="E4" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1676592471502</v>
+      </c>
+      <c r="B5" s="0">
+        <v>119975132707836</v>
+      </c>
+      <c r="C5" s="0">
+        <v>256</v>
+      </c>
+      <c r="D5" s="0">
+        <v>57</v>
+      </c>
+      <c r="E5" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1676592471510</v>
+      </c>
+      <c r="B6" s="0">
+        <v>119975141689647</v>
+      </c>
+      <c r="C6" s="0">
+        <v>256</v>
+      </c>
+      <c r="D6" s="0">
+        <v>57</v>
+      </c>
+      <c r="E6" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1676592471520</v>
+      </c>
+      <c r="B7" s="0">
+        <v>119975150668834</v>
+      </c>
+      <c r="C7" s="0">
+        <v>256</v>
+      </c>
+      <c r="D7" s="0">
+        <v>57</v>
+      </c>
+      <c r="E7" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1676592471528</v>
+      </c>
+      <c r="B8" s="0">
+        <v>119975159648204</v>
+      </c>
+      <c r="C8" s="0">
+        <v>256</v>
+      </c>
+      <c r="D8" s="0">
+        <v>57</v>
+      </c>
+      <c r="E8" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1676592471537</v>
+      </c>
+      <c r="B9" s="0">
+        <v>119975168629039</v>
+      </c>
+      <c r="C9" s="0">
+        <v>256</v>
+      </c>
+      <c r="D9" s="0">
+        <v>57</v>
+      </c>
+      <c r="E9" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1676592471546</v>
+      </c>
+      <c r="B10" s="0">
+        <v>119975177610301</v>
+      </c>
+      <c r="C10" s="0">
+        <v>256</v>
+      </c>
+      <c r="D10" s="0">
+        <v>57</v>
+      </c>
+      <c r="E10" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1676592471555</v>
+      </c>
+      <c r="B11" s="0">
+        <v>119975186589244</v>
+      </c>
+      <c r="C11" s="0">
+        <v>256</v>
+      </c>
+      <c r="D11" s="0">
+        <v>57</v>
+      </c>
+      <c r="E11" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>1676592471564</v>
+      </c>
+      <c r="B12" s="0">
+        <v>119975195569408</v>
+      </c>
+      <c r="C12" s="0">
+        <v>256</v>
+      </c>
+      <c r="D12" s="0">
+        <v>57</v>
+      </c>
+      <c r="E12" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>1676592471574</v>
+      </c>
+      <c r="B13" s="0">
+        <v>119975204549693</v>
+      </c>
+      <c r="C13" s="0">
+        <v>257</v>
+      </c>
+      <c r="D13" s="0">
+        <v>57</v>
+      </c>
+      <c r="E13" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1676592471582</v>
+      </c>
+      <c r="B14" s="0">
+        <v>119975213531200</v>
+      </c>
+      <c r="C14" s="0">
+        <v>257</v>
+      </c>
+      <c r="D14" s="0">
+        <v>57</v>
+      </c>
+      <c r="E14" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>1676592471592</v>
+      </c>
+      <c r="B15" s="0">
+        <v>119975222498363</v>
+      </c>
+      <c r="C15" s="0">
+        <v>257</v>
+      </c>
+      <c r="D15" s="0">
+        <v>57</v>
+      </c>
+      <c r="E15" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>1676592471601</v>
+      </c>
+      <c r="B16" s="0">
+        <v>119975231490001</v>
+      </c>
+      <c r="C16" s="0">
+        <v>258</v>
+      </c>
+      <c r="D16" s="0">
+        <v>56</v>
+      </c>
+      <c r="E16" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1676592471610</v>
+      </c>
+      <c r="B17" s="0">
+        <v>119975240470104</v>
+      </c>
+      <c r="C17" s="0">
+        <v>258</v>
+      </c>
+      <c r="D17" s="0">
+        <v>56</v>
+      </c>
+      <c r="E17" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>1676592471618</v>
+      </c>
+      <c r="B18" s="0">
+        <v>119975249451610</v>
+      </c>
+      <c r="C18" s="0">
+        <v>258</v>
+      </c>
+      <c r="D18" s="0">
+        <v>57</v>
+      </c>
+      <c r="E18" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>1676592471627</v>
+      </c>
+      <c r="B19" s="0">
+        <v>119975258430797</v>
+      </c>
+      <c r="C19" s="0">
+        <v>259</v>
+      </c>
+      <c r="D19" s="0">
+        <v>57</v>
+      </c>
+      <c r="E19" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>1676592471637</v>
+      </c>
+      <c r="B20" s="0">
+        <v>119975267410961</v>
+      </c>
+      <c r="C20" s="0">
+        <v>259</v>
+      </c>
+      <c r="D20" s="0">
+        <v>57</v>
+      </c>
+      <c r="E20" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>1676592471646</v>
+      </c>
+      <c r="B21" s="0">
+        <v>119975276391185</v>
+      </c>
+      <c r="C21" s="0">
+        <v>259</v>
+      </c>
+      <c r="D21" s="0">
+        <v>57</v>
+      </c>
+      <c r="E21" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>1676592471654</v>
+      </c>
+      <c r="B22" s="0">
+        <v>119975285372752</v>
+      </c>
+      <c r="C22" s="0">
+        <v>259</v>
+      </c>
+      <c r="D22" s="0">
+        <v>56</v>
+      </c>
+      <c r="E22" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>1676592471663</v>
+      </c>
+      <c r="B23" s="0">
+        <v>119975294351451</v>
+      </c>
+      <c r="C23" s="0">
+        <v>258</v>
+      </c>
+      <c r="D23" s="0">
+        <v>56</v>
+      </c>
+      <c r="E23" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>1676592471672</v>
+      </c>
+      <c r="B24" s="0">
+        <v>119975303331615</v>
+      </c>
+      <c r="C24" s="0">
+        <v>258</v>
+      </c>
+      <c r="D24" s="0">
+        <v>56</v>
+      </c>
+      <c r="E24" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>1676592471681</v>
+      </c>
+      <c r="B25" s="0">
+        <v>119975312311962</v>
+      </c>
+      <c r="C25" s="0">
+        <v>258</v>
+      </c>
+      <c r="D25" s="0">
+        <v>55</v>
+      </c>
+      <c r="E25" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>1676592471690</v>
+      </c>
+      <c r="B26" s="0">
+        <v>119975321293163</v>
+      </c>
+      <c r="C26" s="0">
+        <v>257</v>
+      </c>
+      <c r="D26" s="0">
+        <v>55</v>
+      </c>
+      <c r="E26" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>1676592471700</v>
+      </c>
+      <c r="B27" s="0">
+        <v>119975330272289</v>
+      </c>
+      <c r="C27" s="0">
+        <v>257</v>
+      </c>
+      <c r="D27" s="0">
+        <v>55</v>
+      </c>
+      <c r="E27" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>1676592471709</v>
+      </c>
+      <c r="B28" s="0">
+        <v>119975339239147</v>
+      </c>
+      <c r="C28" s="0">
+        <v>256</v>
+      </c>
+      <c r="D28" s="0">
+        <v>54</v>
+      </c>
+      <c r="E28" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>1676592471718</v>
+      </c>
+      <c r="B29" s="0">
+        <v>119975348232799</v>
+      </c>
+      <c r="C29" s="0">
+        <v>256</v>
+      </c>
+      <c r="D29" s="0">
+        <v>54</v>
+      </c>
+      <c r="E29" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>1676592471727</v>
+      </c>
+      <c r="B30" s="0">
+        <v>119975357214183</v>
+      </c>
+      <c r="C30" s="0">
+        <v>255</v>
+      </c>
+      <c r="D30" s="0">
+        <v>53</v>
+      </c>
+      <c r="E30" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>1676592471735</v>
+      </c>
+      <c r="B31" s="0">
+        <v>119975366193187</v>
+      </c>
+      <c r="C31" s="0">
+        <v>254</v>
+      </c>
+      <c r="D31" s="0">
+        <v>53</v>
+      </c>
+      <c r="E31" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>1676592471745</v>
+      </c>
+      <c r="B32" s="0">
+        <v>119975375173168</v>
+      </c>
+      <c r="C32" s="0">
+        <v>254</v>
+      </c>
+      <c r="D32" s="0">
+        <v>53</v>
+      </c>
+      <c r="E32" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>1676592471753</v>
+      </c>
+      <c r="B33" s="0">
+        <v>119975384153697</v>
+      </c>
+      <c r="C33" s="0">
+        <v>253</v>
+      </c>
+      <c r="D33" s="0">
+        <v>52</v>
+      </c>
+      <c r="E33" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>1676592471763</v>
+      </c>
+      <c r="B34" s="0">
+        <v>119975393134899</v>
+      </c>
+      <c r="C34" s="0">
+        <v>252</v>
+      </c>
+      <c r="D34" s="0">
+        <v>53</v>
+      </c>
+      <c r="E34" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>1676592471772</v>
+      </c>
+      <c r="B35" s="0">
+        <v>119975402113841</v>
+      </c>
+      <c r="C35" s="0">
+        <v>251</v>
+      </c>
+      <c r="D35" s="0">
+        <v>53</v>
+      </c>
+      <c r="E35" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>1676592471780</v>
+      </c>
+      <c r="B36" s="0">
+        <v>119975411094127</v>
+      </c>
+      <c r="C36" s="0">
+        <v>251</v>
+      </c>
+      <c r="D36" s="0">
+        <v>55</v>
+      </c>
+      <c r="E36" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>1676592471789</v>
+      </c>
+      <c r="B37" s="0">
+        <v>119975420074413</v>
+      </c>
+      <c r="C37" s="0">
+        <v>251</v>
+      </c>
+      <c r="D37" s="0">
+        <v>56</v>
+      </c>
+      <c r="E37" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>1676592471799</v>
+      </c>
+      <c r="B38" s="0">
+        <v>119975429055797</v>
+      </c>
+      <c r="C38" s="0">
+        <v>250</v>
+      </c>
+      <c r="D38" s="0">
+        <v>58</v>
+      </c>
+      <c r="E38" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>1676592471807</v>
+      </c>
+      <c r="B39" s="0">
+        <v>119975438031627</v>
+      </c>
+      <c r="C39" s="0">
+        <v>249</v>
+      </c>
+      <c r="D39" s="0">
+        <v>60</v>
+      </c>
+      <c r="E39" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>1676592471817</v>
+      </c>
+      <c r="B40" s="0">
+        <v>119975447014476</v>
+      </c>
+      <c r="C40" s="0">
+        <v>248</v>
+      </c>
+      <c r="D40" s="0">
+        <v>62</v>
+      </c>
+      <c r="E40" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>1676592471825</v>
+      </c>
+      <c r="B41" s="0">
+        <v>119975455998119</v>
+      </c>
+      <c r="C41" s="0">
+        <v>247</v>
+      </c>
+      <c r="D41" s="0">
+        <v>63</v>
+      </c>
+      <c r="E41" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>1676592471834</v>
+      </c>
+      <c r="B42" s="0">
+        <v>119975464976207</v>
+      </c>
+      <c r="C42" s="0">
+        <v>247</v>
+      </c>
+      <c r="D42" s="0">
+        <v>65</v>
+      </c>
+      <c r="E42" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>1676592471842</v>
+      </c>
+      <c r="B43" s="0">
+        <v>119975473955150</v>
+      </c>
+      <c r="C43" s="0">
+        <v>246</v>
+      </c>
+      <c r="D43" s="0">
+        <v>65</v>
+      </c>
+      <c r="E43" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>1676592471852</v>
+      </c>
+      <c r="B44" s="0">
+        <v>119975482935680</v>
+      </c>
+      <c r="C44" s="0">
+        <v>246</v>
+      </c>
+      <c r="D44" s="0">
+        <v>66</v>
+      </c>
+      <c r="E44" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>1676592471861</v>
+      </c>
+      <c r="B45" s="0">
+        <v>119975491916210</v>
+      </c>
+      <c r="C45" s="0">
+        <v>246</v>
+      </c>
+      <c r="D45" s="0">
+        <v>66</v>
+      </c>
+      <c r="E45" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>1676592471870</v>
+      </c>
+      <c r="B46" s="0">
+        <v>119975500897411</v>
+      </c>
+      <c r="C46" s="0">
+        <v>246</v>
+      </c>
+      <c r="D46" s="0">
+        <v>67</v>
+      </c>
+      <c r="E46" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>1676592471879</v>
+      </c>
+      <c r="B47" s="0">
+        <v>119975509876293</v>
+      </c>
+      <c r="C47" s="0">
+        <v>246</v>
+      </c>
+      <c r="D47" s="0">
+        <v>68</v>
+      </c>
+      <c r="E47" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>1676592471888</v>
+      </c>
+      <c r="B48" s="0">
+        <v>119975518856273</v>
+      </c>
+      <c r="C48" s="0">
+        <v>246</v>
+      </c>
+      <c r="D48" s="0">
+        <v>68</v>
+      </c>
+      <c r="E48" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>1676592471896</v>
+      </c>
+      <c r="B49" s="0">
+        <v>119975527836559</v>
+      </c>
+      <c r="C49" s="0">
+        <v>246</v>
+      </c>
+      <c r="D49" s="0">
+        <v>69</v>
+      </c>
+      <c r="E49" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>1676592471905</v>
+      </c>
+      <c r="B50" s="0">
+        <v>119975536817943</v>
+      </c>
+      <c r="C50" s="0">
+        <v>247</v>
+      </c>
+      <c r="D50" s="0">
+        <v>69</v>
+      </c>
+      <c r="E50" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>1676592471914</v>
+      </c>
+      <c r="B51" s="0">
+        <v>119975545796947</v>
+      </c>
+      <c r="C51" s="0">
+        <v>249</v>
+      </c>
+      <c r="D51" s="0">
+        <v>69</v>
+      </c>
+      <c r="E51" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>1676592471923</v>
+      </c>
+      <c r="B52" s="0">
+        <v>119975554777233</v>
+      </c>
+      <c r="C52" s="0">
+        <v>250</v>
+      </c>
+      <c r="D52" s="0">
+        <v>69</v>
+      </c>
+      <c r="E52" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>1676592471932</v>
+      </c>
+      <c r="B53" s="0">
+        <v>119975563757213</v>
+      </c>
+      <c r="C53" s="0">
+        <v>252</v>
+      </c>
+      <c r="D53" s="0">
+        <v>69</v>
+      </c>
+      <c r="E53" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>1676592471941</v>
+      </c>
+      <c r="B54" s="0">
+        <v>119975572739085</v>
+      </c>
+      <c r="C54" s="0">
+        <v>255</v>
+      </c>
+      <c r="D54" s="0">
+        <v>69</v>
+      </c>
+      <c r="E54" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>1676592471950</v>
+      </c>
+      <c r="B55" s="0">
+        <v>119975581717967</v>
+      </c>
+      <c r="C55" s="0">
+        <v>258</v>
+      </c>
+      <c r="D55" s="0">
+        <v>69</v>
+      </c>
+      <c r="E55" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>1676592471959</v>
+      </c>
+      <c r="B56" s="0">
+        <v>119975590697887</v>
+      </c>
+      <c r="C56" s="0">
+        <v>261</v>
+      </c>
+      <c r="D56" s="0">
+        <v>68</v>
+      </c>
+      <c r="E56" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>1676592471968</v>
+      </c>
+      <c r="B57" s="0">
+        <v>119975599678111</v>
+      </c>
+      <c r="C57" s="0">
+        <v>264</v>
+      </c>
+      <c r="D57" s="0">
+        <v>68</v>
+      </c>
+      <c r="E57" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>1676592471978</v>
+      </c>
+      <c r="B58" s="0">
+        <v>119975608659557</v>
+      </c>
+      <c r="C58" s="0">
+        <v>267</v>
+      </c>
+      <c r="D58" s="0">
+        <v>67</v>
+      </c>
+      <c r="E58" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>1676592471987</v>
+      </c>
+      <c r="B59" s="0">
+        <v>119975617638500</v>
+      </c>
+      <c r="C59" s="0">
+        <v>270</v>
+      </c>
+      <c r="D59" s="0">
+        <v>67</v>
+      </c>
+      <c r="E59" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>1676592471996</v>
+      </c>
+      <c r="B60" s="0">
+        <v>119975626618724</v>
+      </c>
+      <c r="C60" s="0">
+        <v>273</v>
+      </c>
+      <c r="D60" s="0">
+        <v>67</v>
+      </c>
+      <c r="E60" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>1676592472005</v>
+      </c>
+      <c r="B61" s="0">
+        <v>119975635598644</v>
+      </c>
+      <c r="C61" s="0">
+        <v>276</v>
+      </c>
+      <c r="D61" s="0">
+        <v>67</v>
+      </c>
+      <c r="E61" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>1676592472013</v>
+      </c>
+      <c r="B62" s="0">
+        <v>119975644580760</v>
+      </c>
+      <c r="C62" s="0">
+        <v>278</v>
+      </c>
+      <c r="D62" s="0">
+        <v>67</v>
+      </c>
+      <c r="E62" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>1676592472022</v>
+      </c>
+      <c r="B63" s="0">
+        <v>119975653557384</v>
+      </c>
+      <c r="C63" s="0">
+        <v>280</v>
+      </c>
+      <c r="D63" s="0">
+        <v>67</v>
+      </c>
+      <c r="E63" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>1676592472031</v>
+      </c>
+      <c r="B64" s="0">
+        <v>119975662527660</v>
+      </c>
+      <c r="C64" s="0">
+        <v>281</v>
+      </c>
+      <c r="D64" s="0">
+        <v>67</v>
+      </c>
+      <c r="E64" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>1676592472040</v>
+      </c>
+      <c r="B65" s="0">
+        <v>119975671521800</v>
+      </c>
+      <c r="C65" s="0">
+        <v>283</v>
+      </c>
+      <c r="D65" s="0">
+        <v>68</v>
+      </c>
+      <c r="E65" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>1676592472049</v>
+      </c>
+      <c r="B66" s="0">
+        <v>119975680501171</v>
+      </c>
+      <c r="C66" s="0">
+        <v>284</v>
+      </c>
+      <c r="D66" s="0">
+        <v>68</v>
+      </c>
+      <c r="E66" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>1676592472058</v>
+      </c>
+      <c r="B67" s="0">
+        <v>119975689480113</v>
+      </c>
+      <c r="C67" s="0">
+        <v>284</v>
+      </c>
+      <c r="D67" s="0">
+        <v>69</v>
+      </c>
+      <c r="E67" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>1676592472068</v>
+      </c>
+      <c r="B68" s="0">
+        <v>119975698460277</v>
+      </c>
+      <c r="C68" s="0">
+        <v>285</v>
+      </c>
+      <c r="D68" s="0">
+        <v>70</v>
+      </c>
+      <c r="E68" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>1676592472076</v>
+      </c>
+      <c r="B69" s="0">
+        <v>119975707440502</v>
+      </c>
+      <c r="C69" s="0">
+        <v>286</v>
+      </c>
+      <c r="D69" s="0">
+        <v>71</v>
+      </c>
+      <c r="E69" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>1676592472085</v>
+      </c>
+      <c r="B70" s="0">
+        <v>119975716422008</v>
+      </c>
+      <c r="C70" s="0">
+        <v>287</v>
+      </c>
+      <c r="D70" s="0">
+        <v>71</v>
+      </c>
+      <c r="E70" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>1676592472095</v>
+      </c>
+      <c r="B71" s="0">
+        <v>119975725401012</v>
+      </c>
+      <c r="C71" s="0">
+        <v>289</v>
+      </c>
+      <c r="D71" s="0">
+        <v>72</v>
+      </c>
+      <c r="E71" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>1676592472104</v>
+      </c>
+      <c r="B72" s="0">
+        <v>119975734380931</v>
+      </c>
+      <c r="C72" s="0">
+        <v>290</v>
+      </c>
+      <c r="D72" s="0">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>1676592472113</v>
+      </c>
+      <c r="B73" s="0">
+        <v>119975743349193</v>
+      </c>
+      <c r="C73" s="0">
+        <v>292</v>
+      </c>
+      <c r="D73" s="0">
+        <v>72</v>
+      </c>
+      <c r="E73" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>1676592472122</v>
+      </c>
+      <c r="B74" s="0">
+        <v>119975752342662</v>
+      </c>
+      <c r="C74" s="0">
+        <v>294</v>
+      </c>
+      <c r="D74" s="0">
+        <v>71</v>
+      </c>
+      <c r="E74" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>1676592472130</v>
+      </c>
+      <c r="B75" s="0">
+        <v>119975761321666</v>
+      </c>
+      <c r="C75" s="0">
+        <v>295</v>
+      </c>
+      <c r="D75" s="0">
+        <v>71</v>
+      </c>
+      <c r="E75" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>1676592472139</v>
+      </c>
+      <c r="B76" s="0">
+        <v>119975770301830</v>
+      </c>
+      <c r="C76" s="0">
+        <v>297</v>
+      </c>
+      <c r="D76" s="0">
+        <v>72</v>
+      </c>
+      <c r="E76" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>1676592472149</v>
+      </c>
+      <c r="B77" s="0">
+        <v>119975779282176</v>
+      </c>
+      <c r="C77" s="0">
+        <v>298</v>
+      </c>
+      <c r="D77" s="0">
+        <v>72</v>
+      </c>
+      <c r="E77" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>1676592472158</v>
+      </c>
+      <c r="B78" s="0">
+        <v>119975788263622</v>
+      </c>
+      <c r="C78" s="0">
+        <v>299</v>
+      </c>
+      <c r="D78" s="0">
+        <v>72</v>
+      </c>
+      <c r="E78" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>1676592472167</v>
+      </c>
+      <c r="B79" s="0">
+        <v>119975797242504</v>
+      </c>
+      <c r="C79" s="0">
+        <v>300</v>
+      </c>
+      <c r="D79" s="0">
+        <v>72</v>
+      </c>
+      <c r="E79" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>1676592472176</v>
+      </c>
+      <c r="B80" s="0">
+        <v>119975806222484</v>
+      </c>
+      <c r="C80" s="0">
+        <v>301</v>
+      </c>
+      <c r="D80" s="0">
+        <v>73</v>
+      </c>
+      <c r="E80" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>1676592472185</v>
+      </c>
+      <c r="B81" s="0">
+        <v>119975815202770</v>
+      </c>
+      <c r="C81" s="0">
+        <v>301</v>
+      </c>
+      <c r="D81" s="0">
+        <v>73</v>
+      </c>
+      <c r="E81" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>1676592472193</v>
+      </c>
+      <c r="B82" s="0">
+        <v>119975824184215</v>
+      </c>
+      <c r="C82" s="0">
+        <v>302</v>
+      </c>
+      <c r="D82" s="0">
+        <v>73</v>
+      </c>
+      <c r="E82" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>1676592472203</v>
+      </c>
+      <c r="B83" s="0">
+        <v>119975833163219</v>
+      </c>
+      <c r="C83" s="0">
+        <v>302</v>
+      </c>
+      <c r="D83" s="0">
+        <v>72</v>
+      </c>
+      <c r="E83" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>1676592472212</v>
+      </c>
+      <c r="B84" s="0">
+        <v>119975842143443</v>
+      </c>
+      <c r="C84" s="0">
+        <v>302</v>
+      </c>
+      <c r="D84" s="0">
+        <v>72</v>
+      </c>
+      <c r="E84" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>1676592472220</v>
+      </c>
+      <c r="B85" s="0">
+        <v>119975851123668</v>
+      </c>
+      <c r="C85" s="0">
+        <v>302</v>
+      </c>
+      <c r="D85" s="0">
+        <v>72</v>
+      </c>
+      <c r="E85" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>1676592472229</v>
+      </c>
+      <c r="B86" s="0">
+        <v>119975860105052</v>
+      </c>
+      <c r="C86" s="0">
+        <v>302</v>
+      </c>
+      <c r="D86" s="0">
+        <v>71</v>
+      </c>
+      <c r="E86" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>1676592472238</v>
+      </c>
+      <c r="B87" s="0">
+        <v>119975869084117</v>
+      </c>
+      <c r="C87" s="0">
+        <v>302</v>
+      </c>
+      <c r="D87" s="0">
+        <v>71</v>
+      </c>
+      <c r="E87" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>1676592472247</v>
+      </c>
+      <c r="B88" s="0">
+        <v>119975878061657</v>
+      </c>
+      <c r="C88" s="0">
+        <v>301</v>
+      </c>
+      <c r="D88" s="0">
+        <v>70</v>
+      </c>
+      <c r="E88" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>1676592472257</v>
+      </c>
+      <c r="B89" s="0">
+        <v>119975887044261</v>
+      </c>
+      <c r="C89" s="0">
+        <v>301</v>
+      </c>
+      <c r="D89" s="0">
+        <v>70</v>
+      </c>
+      <c r="E89" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>1676592472265</v>
+      </c>
+      <c r="B90" s="0">
+        <v>119975896027965</v>
+      </c>
+      <c r="C90" s="0">
+        <v>301</v>
+      </c>
+      <c r="D90" s="0">
+        <v>70</v>
+      </c>
+      <c r="E90" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>1676592472275</v>
+      </c>
+      <c r="B91" s="0">
+        <v>119975905005016</v>
+      </c>
+      <c r="C91" s="0">
+        <v>301</v>
+      </c>
+      <c r="D91" s="0">
+        <v>69</v>
+      </c>
+      <c r="E91" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>1676592472282</v>
+      </c>
+      <c r="B92" s="0">
+        <v>119975913984996</v>
+      </c>
+      <c r="C92" s="0">
+        <v>301</v>
+      </c>
+      <c r="D92" s="0">
+        <v>69</v>
+      </c>
+      <c r="E92" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>1676592472291</v>
+      </c>
+      <c r="B93" s="0">
+        <v>119975922965221</v>
+      </c>
+      <c r="C93" s="0">
+        <v>301</v>
+      </c>
+      <c r="D93" s="0">
+        <v>69</v>
+      </c>
+      <c r="E93" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>1676592472300</v>
+      </c>
+      <c r="B94" s="0">
+        <v>119975931946666</v>
+      </c>
+      <c r="C94" s="0">
+        <v>302</v>
+      </c>
+      <c r="D94" s="0">
+        <v>70</v>
+      </c>
+      <c r="E94" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>1676592472309</v>
+      </c>
+      <c r="B95" s="0">
+        <v>119975940925426</v>
+      </c>
+      <c r="C95" s="0">
+        <v>302</v>
+      </c>
+      <c r="D95" s="0">
+        <v>71</v>
+      </c>
+      <c r="E95" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>1676592472319</v>
+      </c>
+      <c r="B96" s="0">
+        <v>119975949905346</v>
+      </c>
+      <c r="C96" s="0">
+        <v>303</v>
+      </c>
+      <c r="D96" s="0">
+        <v>71</v>
+      </c>
+      <c r="E96" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>1676592472327</v>
+      </c>
+      <c r="B97" s="0">
+        <v>119975958885753</v>
+      </c>
+      <c r="C97" s="0">
+        <v>303</v>
+      </c>
+      <c r="D97" s="0">
+        <v>72</v>
+      </c>
+      <c r="E97" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>1676592472337</v>
+      </c>
+      <c r="B98" s="0">
+        <v>119975967867320</v>
+      </c>
+      <c r="C98" s="0">
+        <v>304</v>
+      </c>
+      <c r="D98" s="0">
+        <v>71</v>
+      </c>
+      <c r="E98" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>1676592472346</v>
+      </c>
+      <c r="B99" s="0">
+        <v>119975976846324</v>
+      </c>
+      <c r="C99" s="0">
+        <v>306</v>
+      </c>
+      <c r="D99" s="0">
+        <v>70</v>
+      </c>
+      <c r="E99" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>1676592472354</v>
+      </c>
+      <c r="B100" s="0">
+        <v>119975985826549</v>
+      </c>
+      <c r="C100" s="0">
+        <v>308</v>
+      </c>
+      <c r="D100" s="0">
+        <v>69</v>
+      </c>
+      <c r="E100" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>1676592472363</v>
+      </c>
+      <c r="B101" s="0">
+        <v>119975994806774</v>
+      </c>
+      <c r="C101" s="0">
+        <v>311</v>
+      </c>
+      <c r="D101" s="0">
+        <v>67</v>
+      </c>
+      <c r="E101" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>1676592472372</v>
+      </c>
+      <c r="B102" s="0">
+        <v>119976003779430</v>
+      </c>
+      <c r="C102" s="0">
+        <v>314</v>
+      </c>
+      <c r="D102" s="0">
+        <v>66</v>
+      </c>
+      <c r="E102" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>1676592472382</v>
+      </c>
+      <c r="B103" s="0">
+        <v>119976012753185</v>
+      </c>
+      <c r="C103" s="0">
+        <v>317</v>
+      </c>
+      <c r="D103" s="0">
+        <v>64</v>
+      </c>
+      <c r="E103" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>1676592472391</v>
+      </c>
+      <c r="B104" s="0">
+        <v>119976021734996</v>
+      </c>
+      <c r="C104" s="0">
+        <v>320</v>
+      </c>
+      <c r="D104" s="0">
+        <v>63</v>
+      </c>
+      <c r="E104" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>1676592472400</v>
+      </c>
+      <c r="B105" s="0">
+        <v>119976030729503</v>
+      </c>
+      <c r="C105" s="0">
+        <v>322</v>
+      </c>
+      <c r="D105" s="0">
+        <v>61</v>
+      </c>
+      <c r="E105" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>1676592472409</v>
+      </c>
+      <c r="B106" s="0">
+        <v>119976039708568</v>
+      </c>
+      <c r="C106" s="0">
+        <v>325</v>
+      </c>
+      <c r="D106" s="0">
+        <v>60</v>
+      </c>
+      <c r="E106" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>1676592472418</v>
+      </c>
+      <c r="B107" s="0">
+        <v>119976048687816</v>
+      </c>
+      <c r="C107" s="0">
+        <v>327</v>
+      </c>
+      <c r="D107" s="0">
+        <v>59</v>
+      </c>
+      <c r="E107" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>1676592472426</v>
+      </c>
+      <c r="B108" s="0">
+        <v>119976057667797</v>
+      </c>
+      <c r="C108" s="0">
+        <v>329</v>
+      </c>
+      <c r="D108" s="0">
+        <v>58</v>
+      </c>
+      <c r="E108" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>1676592472436</v>
+      </c>
+      <c r="B109" s="0">
+        <v>119976066648082</v>
+      </c>
+      <c r="C109" s="0">
+        <v>330</v>
+      </c>
+      <c r="D109" s="0">
+        <v>57</v>
+      </c>
+      <c r="E109" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>1676592472444</v>
+      </c>
+      <c r="B110" s="0">
+        <v>119976075629771</v>
+      </c>
+      <c r="C110" s="0">
+        <v>331</v>
+      </c>
+      <c r="D110" s="0">
+        <v>57</v>
+      </c>
+      <c r="E110" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>1676592472453</v>
+      </c>
+      <c r="B111" s="0">
+        <v>119976084608776</v>
+      </c>
+      <c r="C111" s="0">
+        <v>332</v>
+      </c>
+      <c r="D111" s="0">
+        <v>57</v>
+      </c>
+      <c r="E111" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>1676592472462</v>
+      </c>
+      <c r="B112" s="0">
+        <v>119976093588512</v>
+      </c>
+      <c r="C112" s="0">
+        <v>332</v>
+      </c>
+      <c r="D112" s="0">
+        <v>58</v>
+      </c>
+      <c r="E112" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>1676592472471</v>
+      </c>
+      <c r="B113" s="0">
+        <v>119976102557506</v>
+      </c>
+      <c r="C113" s="0">
+        <v>331</v>
+      </c>
+      <c r="D113" s="0">
+        <v>60</v>
+      </c>
+      <c r="E113" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>1676592472481</v>
+      </c>
+      <c r="B114" s="0">
+        <v>119976111550121</v>
+      </c>
+      <c r="C114" s="0">
+        <v>330</v>
+      </c>
+      <c r="D114" s="0">
+        <v>63</v>
+      </c>
+      <c r="E114" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>1676592472490</v>
+      </c>
+      <c r="B115" s="0">
+        <v>119976120529186</v>
+      </c>
+      <c r="C115" s="0">
+        <v>329</v>
+      </c>
+      <c r="D115" s="0">
+        <v>65</v>
+      </c>
+      <c r="E115" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>1676592472498</v>
+      </c>
+      <c r="B116" s="0">
+        <v>119976129509166</v>
+      </c>
+      <c r="C116" s="0">
+        <v>328</v>
+      </c>
+      <c r="D116" s="0">
+        <v>66</v>
+      </c>
+      <c r="E116" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>1676592472507</v>
+      </c>
+      <c r="B117" s="0">
+        <v>119976138489818</v>
+      </c>
+      <c r="C117" s="0">
+        <v>328</v>
+      </c>
+      <c r="D117" s="0">
+        <v>67</v>
+      </c>
+      <c r="E117" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>1676592472517</v>
+      </c>
+      <c r="B118" s="0">
+        <v>119976147471324</v>
+      </c>
+      <c r="C118" s="0">
+        <v>328</v>
+      </c>
+      <c r="D118" s="0">
+        <v>67</v>
+      </c>
+      <c r="E118" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>1676592472526</v>
+      </c>
+      <c r="B119" s="0">
+        <v>119976156450084</v>
+      </c>
+      <c r="C119" s="0">
+        <v>328</v>
+      </c>
+      <c r="D119" s="0">
+        <v>68</v>
+      </c>
+      <c r="E119" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>1676592472534</v>
+      </c>
+      <c r="B120" s="0">
+        <v>119976165429760</v>
+      </c>
+      <c r="C120" s="0">
+        <v>328</v>
+      </c>
+      <c r="D120" s="0">
+        <v>68</v>
+      </c>
+      <c r="E120" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>1676592472544</v>
+      </c>
+      <c r="B121" s="0">
+        <v>119976174410472</v>
+      </c>
+      <c r="C121" s="0">
+        <v>329</v>
+      </c>
+      <c r="D121" s="0">
+        <v>68</v>
+      </c>
+      <c r="E121" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>1676592472553</v>
+      </c>
+      <c r="B122" s="0">
+        <v>119976183391735</v>
+      </c>
+      <c r="C122" s="0">
+        <v>329</v>
+      </c>
+      <c r="D122" s="0">
+        <v>68</v>
+      </c>
+      <c r="E122" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>1676592472561</v>
+      </c>
+      <c r="B123" s="0">
+        <v>119976192380443</v>
+      </c>
+      <c r="C123" s="0">
+        <v>329</v>
+      </c>
+      <c r="D123" s="0">
+        <v>68</v>
+      </c>
+      <c r="E123" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>1676592472570</v>
+      </c>
+      <c r="B124" s="0">
+        <v>119976201351024</v>
+      </c>
+      <c r="C124" s="0">
+        <v>329</v>
+      </c>
+      <c r="D124" s="0">
+        <v>68</v>
+      </c>
+      <c r="E124" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>1676592472579</v>
+      </c>
+      <c r="B125" s="0">
+        <v>119976210331249</v>
+      </c>
+      <c r="C125" s="0">
+        <v>329</v>
+      </c>
+      <c r="D125" s="0">
+        <v>68</v>
+      </c>
+      <c r="E125" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>1676592472588</v>
+      </c>
+      <c r="B126" s="0">
+        <v>119976219312633</v>
+      </c>
+      <c r="C126" s="0">
+        <v>329</v>
+      </c>
+      <c r="D126" s="0">
+        <v>68</v>
+      </c>
+      <c r="E126" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>1676592472598</v>
+      </c>
+      <c r="B127" s="0">
+        <v>119976228291637</v>
+      </c>
+      <c r="C127" s="0">
+        <v>329</v>
+      </c>
+      <c r="D127" s="0">
+        <v>67</v>
+      </c>
+      <c r="E127" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>1676592472606</v>
+      </c>
+      <c r="B128" s="0">
+        <v>119976237271251</v>
+      </c>
+      <c r="C128" s="0">
+        <v>329</v>
+      </c>
+      <c r="D128" s="0">
+        <v>66</v>
+      </c>
+      <c r="E128" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>1676592472615</v>
+      </c>
+      <c r="B129" s="0">
+        <v>119976246252025</v>
+      </c>
+      <c r="C129" s="0">
+        <v>328</v>
+      </c>
+      <c r="D129" s="0">
+        <v>66</v>
+      </c>
+      <c r="E129" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>1676592472624</v>
+      </c>
+      <c r="B130" s="0">
+        <v>119976255233287</v>
+      </c>
+      <c r="C130" s="0">
+        <v>327</v>
+      </c>
+      <c r="D130" s="0">
+        <v>65</v>
+      </c>
+      <c r="E130" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>1676592472634</v>
+      </c>
+      <c r="B131" s="0">
+        <v>119976264212291</v>
+      </c>
+      <c r="C131" s="0">
+        <v>326</v>
+      </c>
+      <c r="D131" s="0">
+        <v>65</v>
+      </c>
+      <c r="E131" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>1676592472642</v>
+      </c>
+      <c r="B132" s="0">
+        <v>119976273192516</v>
+      </c>
+      <c r="C132" s="0">
+        <v>324</v>
+      </c>
+      <c r="D132" s="0">
+        <v>65</v>
+      </c>
+      <c r="E132" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>1676592472652</v>
+      </c>
+      <c r="B133" s="0">
+        <v>119976282172740</v>
+      </c>
+      <c r="C133" s="0">
+        <v>323</v>
+      </c>
+      <c r="D133" s="0">
+        <v>65</v>
+      </c>
+      <c r="E133" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>1676592472661</v>
+      </c>
+      <c r="B134" s="0">
+        <v>119976291150219</v>
+      </c>
+      <c r="C134" s="0">
+        <v>321</v>
+      </c>
+      <c r="D134" s="0">
+        <v>65</v>
+      </c>
+      <c r="E134" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>1676592472670</v>
+      </c>
+      <c r="B135" s="0">
+        <v>119976300132701</v>
+      </c>
+      <c r="C135" s="0">
+        <v>319</v>
+      </c>
+      <c r="D135" s="0">
+        <v>66</v>
+      </c>
+      <c r="E135" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>1676592472678</v>
+      </c>
+      <c r="B136" s="0">
+        <v>119976309117076</v>
+      </c>
+      <c r="C136" s="0">
+        <v>318</v>
+      </c>
+      <c r="D136" s="0">
+        <v>67</v>
+      </c>
+      <c r="E136" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>1676592472687</v>
+      </c>
+      <c r="B137" s="0">
+        <v>119976318090892</v>
+      </c>
+      <c r="C137" s="0">
+        <v>318</v>
+      </c>
+      <c r="D137" s="0">
+        <v>69</v>
+      </c>
+      <c r="E137" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>1676592472696</v>
+      </c>
+      <c r="B138" s="0">
+        <v>119976327074840</v>
+      </c>
+      <c r="C138" s="0">
+        <v>318</v>
+      </c>
+      <c r="D138" s="0">
+        <v>69</v>
+      </c>
+      <c r="E138" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>1676592472705</v>
+      </c>
+      <c r="B139" s="0">
+        <v>119976336056530</v>
+      </c>
+      <c r="C139" s="0">
+        <v>319</v>
+      </c>
+      <c r="D139" s="0">
+        <v>69</v>
+      </c>
+      <c r="E139" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>1676592472714</v>
+      </c>
+      <c r="B140" s="0">
+        <v>119976345034313</v>
+      </c>
+      <c r="C140" s="0">
+        <v>320</v>
+      </c>
+      <c r="D140" s="0">
+        <v>69</v>
+      </c>
+      <c r="E140" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>1676592472723</v>
+      </c>
+      <c r="B141" s="0">
+        <v>119976354014232</v>
+      </c>
+      <c r="C141" s="0">
+        <v>321</v>
+      </c>
+      <c r="D141" s="0">
+        <v>68</v>
+      </c>
+      <c r="E141" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>1676592472731</v>
+      </c>
+      <c r="B142" s="0">
+        <v>119976362983959</v>
+      </c>
+      <c r="C142" s="0">
+        <v>323</v>
+      </c>
+      <c r="D142" s="0">
+        <v>67</v>
+      </c>
+      <c r="E142" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>1676592472740</v>
+      </c>
+      <c r="B143" s="0">
+        <v>119976371974742</v>
+      </c>
+      <c r="C143" s="0">
+        <v>325</v>
+      </c>
+      <c r="D143" s="0">
+        <v>65</v>
+      </c>
+      <c r="E143" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>1676592472750</v>
+      </c>
+      <c r="B144" s="0">
+        <v>119976380954540</v>
+      </c>
+      <c r="C144" s="0">
+        <v>327</v>
+      </c>
+      <c r="D144" s="0">
+        <v>64</v>
+      </c>
+      <c r="E144" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>1676592472758</v>
+      </c>
+      <c r="B145" s="0">
+        <v>119976389934947</v>
+      </c>
+      <c r="C145" s="0">
+        <v>329</v>
+      </c>
+      <c r="D145" s="0">
+        <v>63</v>
+      </c>
+      <c r="E145" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>1676592472768</v>
+      </c>
+      <c r="B146" s="0">
+        <v>119976398913219</v>
+      </c>
+      <c r="C146" s="0">
+        <v>331</v>
+      </c>
+      <c r="D146" s="0">
+        <v>62</v>
+      </c>
+      <c r="E146" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>1676592472776</v>
+      </c>
+      <c r="B147" s="0">
+        <v>119976407897289</v>
+      </c>
+      <c r="C147" s="0">
+        <v>332</v>
+      </c>
+      <c r="D147" s="0">
+        <v>60</v>
+      </c>
+      <c r="E147" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>1676592472785</v>
+      </c>
+      <c r="B148" s="0">
+        <v>119976416878368</v>
+      </c>
+      <c r="C148" s="0">
+        <v>333</v>
+      </c>
+      <c r="D148" s="0">
+        <v>59</v>
+      </c>
+      <c r="E148" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>1676592472795</v>
+      </c>
+      <c r="B149" s="0">
+        <v>119976425853893</v>
+      </c>
+      <c r="C149" s="0">
+        <v>335</v>
+      </c>
+      <c r="D149" s="0">
+        <v>57</v>
+      </c>
+      <c r="E149" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>1676592472803</v>
+      </c>
+      <c r="B150" s="0">
+        <v>119976434837352</v>
+      </c>
+      <c r="C150" s="0">
+        <v>336</v>
+      </c>
+      <c r="D150" s="0">
+        <v>56</v>
+      </c>
+      <c r="E150" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>1676592472812</v>
+      </c>
+      <c r="B151" s="0">
+        <v>119976443816295</v>
+      </c>
+      <c r="C151" s="0">
+        <v>337</v>
+      </c>
+      <c r="D151" s="0">
+        <v>55</v>
+      </c>
+      <c r="E151" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>1676592472822</v>
+      </c>
+      <c r="B152" s="0">
+        <v>119976452796032</v>
+      </c>
+      <c r="C152" s="0">
+        <v>338</v>
+      </c>
+      <c r="D152" s="0">
+        <v>55</v>
+      </c>
+      <c r="E152" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>1676592472830</v>
+      </c>
+      <c r="B153" s="0">
+        <v>119976461776439</v>
+      </c>
+      <c r="C153" s="0">
+        <v>338</v>
+      </c>
+      <c r="D153" s="0">
+        <v>55</v>
+      </c>
+      <c r="E153" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>1676592472840</v>
+      </c>
+      <c r="B154" s="0">
+        <v>119976470757884</v>
+      </c>
+      <c r="C154" s="0">
+        <v>337</v>
+      </c>
+      <c r="D154" s="0">
+        <v>56</v>
+      </c>
+      <c r="E154" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>1676592472849</v>
+      </c>
+      <c r="B155" s="0">
+        <v>119976479736766</v>
+      </c>
+      <c r="C155" s="0">
+        <v>335</v>
+      </c>
+      <c r="D155" s="0">
+        <v>60</v>
+      </c>
+      <c r="E155" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>1676592472857</v>
+      </c>
+      <c r="B156" s="0">
+        <v>119976488717174</v>
+      </c>
+      <c r="C156" s="0">
+        <v>333</v>
+      </c>
+      <c r="D156" s="0">
+        <v>63</v>
+      </c>
+      <c r="E156" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>1676592472867</v>
+      </c>
+      <c r="B157" s="0">
+        <v>119976497697093</v>
+      </c>
+      <c r="C157" s="0">
+        <v>331</v>
+      </c>
+      <c r="D157" s="0">
+        <v>67</v>
+      </c>
+      <c r="E157" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>1676592472876</v>
+      </c>
+      <c r="B158" s="0">
+        <v>119976506678844</v>
+      </c>
+      <c r="C158" s="0">
+        <v>330</v>
+      </c>
+      <c r="D158" s="0">
+        <v>70</v>
+      </c>
+      <c r="E158" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>1676592472885</v>
+      </c>
+      <c r="B159" s="0">
+        <v>119976515657604</v>
+      </c>
+      <c r="C159" s="0">
+        <v>328</v>
+      </c>
+      <c r="D159" s="0">
+        <v>73</v>
+      </c>
+      <c r="E159" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>1676592472894</v>
+      </c>
+      <c r="B160" s="0">
+        <v>119976524637584</v>
+      </c>
+      <c r="C160" s="0">
+        <v>326</v>
+      </c>
+      <c r="D160" s="0">
+        <v>74</v>
+      </c>
+      <c r="E160" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>1676592472903</v>
+      </c>
+      <c r="B161" s="0">
+        <v>119976533617504</v>
+      </c>
+      <c r="C161" s="0">
+        <v>325</v>
+      </c>
+      <c r="D161" s="0">
+        <v>75</v>
+      </c>
+      <c r="E161" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>1676592472911</v>
+      </c>
+      <c r="B162" s="0">
+        <v>119976542587718</v>
+      </c>
+      <c r="C162" s="0">
+        <v>325</v>
+      </c>
+      <c r="D162" s="0">
+        <v>76</v>
+      </c>
+      <c r="E162" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>1676592472920</v>
+      </c>
+      <c r="B163" s="0">
+        <v>119976551578258</v>
+      </c>
+      <c r="C163" s="0">
+        <v>325</v>
+      </c>
+      <c r="D163" s="0">
+        <v>75</v>
+      </c>
+      <c r="E163" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>1676592472930</v>
+      </c>
+      <c r="B164" s="0">
+        <v>119976560558422</v>
+      </c>
+      <c r="C164" s="0">
+        <v>324</v>
+      </c>
+      <c r="D164" s="0">
+        <v>75</v>
+      </c>
+      <c r="E164" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>1676592472939</v>
+      </c>
+      <c r="B165" s="0">
+        <v>119976569538707</v>
+      </c>
+      <c r="C165" s="0">
+        <v>324</v>
+      </c>
+      <c r="D165" s="0">
+        <v>74</v>
+      </c>
+      <c r="E165" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>1676592472947</v>
+      </c>
+      <c r="B166" s="0">
+        <v>119976578520457</v>
+      </c>
+      <c r="C166" s="0">
+        <v>324</v>
+      </c>
+      <c r="D166" s="0">
+        <v>74</v>
+      </c>
+      <c r="E166" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>1676592472956</v>
+      </c>
+      <c r="B167" s="0">
+        <v>119976587499095</v>
+      </c>
+      <c r="C167" s="0">
+        <v>324</v>
+      </c>
+      <c r="D167" s="0">
+        <v>73</v>
+      </c>
+      <c r="E167" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>1676592472966</v>
+      </c>
+      <c r="B168" s="0">
+        <v>119976596478832</v>
+      </c>
+      <c r="C168" s="0">
+        <v>324</v>
+      </c>
+      <c r="D168" s="0">
+        <v>73</v>
+      </c>
+      <c r="E168" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>1676592472974</v>
+      </c>
+      <c r="B169" s="0">
+        <v>119976605459606</v>
+      </c>
+      <c r="C169" s="0">
+        <v>324</v>
+      </c>
+      <c r="D169" s="0">
+        <v>72</v>
+      </c>
+      <c r="E169" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>1676592472984</v>
+      </c>
+      <c r="B170" s="0">
+        <v>119976614440807</v>
+      </c>
+      <c r="C170" s="0">
+        <v>325</v>
+      </c>
+      <c r="D170" s="0">
+        <v>72</v>
+      </c>
+      <c r="E170" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>1676592472992</v>
+      </c>
+      <c r="B171" s="0">
+        <v>119976623419750</v>
+      </c>
+      <c r="C171" s="0">
+        <v>324</v>
+      </c>
+      <c r="D171" s="0">
+        <v>72</v>
+      </c>
+      <c r="E171" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>1676592473001</v>
+      </c>
+      <c r="B172" s="0">
+        <v>119976632389720</v>
+      </c>
+      <c r="C172" s="0">
+        <v>324</v>
+      </c>
+      <c r="D172" s="0">
+        <v>72</v>
+      </c>
+      <c r="E172" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>1676592473010</v>
+      </c>
+      <c r="B173" s="0">
+        <v>119976641380321</v>
+      </c>
+      <c r="C173" s="0">
+        <v>324</v>
+      </c>
+      <c r="D173" s="0">
+        <v>71</v>
+      </c>
+      <c r="E173" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>1676592473020</v>
+      </c>
+      <c r="B174" s="0">
+        <v>119976650361461</v>
+      </c>
+      <c r="C174" s="0">
+        <v>323</v>
+      </c>
+      <c r="D174" s="0">
+        <v>71</v>
+      </c>
+      <c r="E174" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>1676592473029</v>
+      </c>
+      <c r="B175" s="0">
+        <v>119976659340404</v>
+      </c>
+      <c r="C175" s="0">
+        <v>323</v>
+      </c>
+      <c r="D175" s="0">
+        <v>71</v>
+      </c>
+      <c r="E175" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>1676592473038</v>
+      </c>
+      <c r="B176" s="0">
+        <v>119976668320446</v>
+      </c>
+      <c r="C176" s="0">
+        <v>322</v>
+      </c>
+      <c r="D176" s="0">
+        <v>71</v>
+      </c>
+      <c r="E176" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>1676592473047</v>
+      </c>
+      <c r="B177" s="0">
+        <v>119976677300914</v>
+      </c>
+      <c r="C177" s="0">
+        <v>322</v>
+      </c>
+      <c r="D177" s="0">
+        <v>71</v>
+      </c>
+      <c r="E177" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>1676592473056</v>
+      </c>
+      <c r="B178" s="0">
+        <v>119976686282360</v>
+      </c>
+      <c r="C178" s="0">
+        <v>323</v>
+      </c>
+      <c r="D178" s="0">
+        <v>71</v>
+      </c>
+      <c r="E178" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>1676592473065</v>
+      </c>
+      <c r="B179" s="0">
+        <v>119976695258189</v>
+      </c>
+      <c r="C179" s="0">
+        <v>323</v>
+      </c>
+      <c r="D179" s="0">
+        <v>72</v>
+      </c>
+      <c r="E179" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>1676592473074</v>
+      </c>
+      <c r="B180" s="0">
+        <v>119976704241527</v>
+      </c>
+      <c r="C180" s="0">
+        <v>325</v>
+      </c>
+      <c r="D180" s="0">
+        <v>73</v>
+      </c>
+      <c r="E180" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>1676592473083</v>
+      </c>
+      <c r="B181" s="0">
+        <v>119976713224436</v>
+      </c>
+      <c r="C181" s="0">
+        <v>326</v>
+      </c>
+      <c r="D181" s="0">
+        <v>73</v>
+      </c>
+      <c r="E181" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>1676592473091</v>
+      </c>
+      <c r="B182" s="0">
+        <v>119976722203319</v>
+      </c>
+      <c r="C182" s="0">
+        <v>328</v>
+      </c>
+      <c r="D182" s="0">
+        <v>72</v>
+      </c>
+      <c r="E182" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>1676592473100</v>
+      </c>
+      <c r="B183" s="0">
+        <v>119976731182018</v>
+      </c>
+      <c r="C183" s="0">
+        <v>329</v>
+      </c>
+      <c r="D183" s="0">
+        <v>72</v>
+      </c>
+      <c r="E183" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>1676592473109</v>
+      </c>
+      <c r="B184" s="0">
+        <v>119976740161937</v>
+      </c>
+      <c r="C184" s="0">
+        <v>331</v>
+      </c>
+      <c r="D184" s="0">
+        <v>72</v>
+      </c>
+      <c r="E184" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>1676592473118</v>
+      </c>
+      <c r="B185" s="0">
+        <v>119976749142406</v>
+      </c>
+      <c r="C185" s="0">
+        <v>333</v>
+      </c>
+      <c r="D185" s="0">
+        <v>71</v>
+      </c>
+      <c r="E185" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>1676592473128</v>
+      </c>
+      <c r="B186" s="0">
+        <v>119976758114574</v>
+      </c>
+      <c r="C186" s="0">
+        <v>335</v>
+      </c>
+      <c r="D186" s="0">
+        <v>70</v>
+      </c>
+      <c r="E186" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>1676592473136</v>
+      </c>
+      <c r="B187" s="0">
+        <v>119976767102916</v>
+      </c>
+      <c r="C187" s="0">
+        <v>337</v>
+      </c>
+      <c r="D187" s="0">
+        <v>69</v>
+      </c>
+      <c r="E187" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>1676592473146</v>
+      </c>
+      <c r="B188" s="0">
+        <v>119976776085277</v>
+      </c>
+      <c r="C188" s="0">
+        <v>339</v>
+      </c>
+      <c r="D188" s="0">
+        <v>68</v>
+      </c>
+      <c r="E188" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>1676592473155</v>
+      </c>
+      <c r="B189" s="0">
+        <v>119976785063060</v>
+      </c>
+      <c r="C189" s="0">
+        <v>341</v>
+      </c>
+      <c r="D189" s="0">
+        <v>67</v>
+      </c>
+      <c r="E189" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>1676592473163</v>
+      </c>
+      <c r="B190" s="0">
+        <v>119976794044627</v>
+      </c>
+      <c r="C190" s="0">
+        <v>342</v>
+      </c>
+      <c r="D190" s="0">
+        <v>66</v>
+      </c>
+      <c r="E190" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>1676592473172</v>
+      </c>
+      <c r="B191" s="0">
+        <v>119976803023387</v>
+      </c>
+      <c r="C191" s="0">
+        <v>343</v>
+      </c>
+      <c r="D191" s="0">
+        <v>65</v>
+      </c>
+      <c r="E191" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>1676592473181</v>
+      </c>
+      <c r="B192" s="0">
+        <v>119976812003246</v>
+      </c>
+      <c r="C192" s="0">
+        <v>345</v>
+      </c>
+      <c r="D192" s="0">
+        <v>65</v>
+      </c>
+      <c r="E192" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>1676592473190</v>
+      </c>
+      <c r="B193" s="0">
+        <v>119976820983531</v>
+      </c>
+      <c r="C193" s="0">
+        <v>345</v>
+      </c>
+      <c r="D193" s="0">
+        <v>65</v>
+      </c>
+      <c r="E193" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>1676592473199</v>
+      </c>
+      <c r="B194" s="0">
+        <v>119976829965160</v>
+      </c>
+      <c r="C194" s="0">
+        <v>346</v>
+      </c>
+      <c r="D194" s="0">
+        <v>65</v>
+      </c>
+      <c r="E194" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>1676592473207</v>
+      </c>
+      <c r="B195" s="0">
+        <v>119976838943920</v>
+      </c>
+      <c r="C195" s="0">
+        <v>346</v>
+      </c>
+      <c r="D195" s="0">
+        <v>65</v>
+      </c>
+      <c r="E195" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>1676592473216</v>
+      </c>
+      <c r="B196" s="0">
+        <v>119976847921519</v>
+      </c>
+      <c r="C196" s="0">
+        <v>346</v>
+      </c>
+      <c r="D196" s="0">
+        <v>65</v>
+      </c>
+      <c r="E196" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>1676592473225</v>
+      </c>
+      <c r="B197" s="0">
+        <v>119976856904369</v>
+      </c>
+      <c r="C197" s="0">
+        <v>346</v>
+      </c>
+      <c r="D197" s="0">
+        <v>66</v>
+      </c>
+      <c r="E197" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>1676592473235</v>
+      </c>
+      <c r="B198" s="0">
+        <v>119976865877086</v>
+      </c>
+      <c r="C198" s="0">
+        <v>345</v>
+      </c>
+      <c r="D198" s="0">
+        <v>67</v>
+      </c>
+      <c r="E198" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>1676592473243</v>
+      </c>
+      <c r="B199" s="0">
+        <v>119976874864879</v>
+      </c>
+      <c r="C199" s="0">
+        <v>343</v>
+      </c>
+      <c r="D199" s="0">
+        <v>68</v>
+      </c>
+      <c r="E199" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>1676592473252</v>
+      </c>
+      <c r="B200" s="0">
+        <v>119976883844860</v>
+      </c>
+      <c r="C200" s="0">
+        <v>341</v>
+      </c>
+      <c r="D200" s="0">
+        <v>69</v>
+      </c>
+      <c r="E200" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>1676592473262</v>
+      </c>
+      <c r="B201" s="0">
+        <v>119976892825328</v>
+      </c>
+      <c r="C201" s="0">
+        <v>340</v>
+      </c>
+      <c r="D201" s="0">
+        <v>70</v>
+      </c>
+      <c r="E201" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>1676592473270</v>
+      </c>
+      <c r="B202" s="0">
+        <v>119976901806468</v>
+      </c>
+      <c r="C202" s="0">
+        <v>338</v>
+      </c>
+      <c r="D202" s="0">
+        <v>71</v>
+      </c>
+      <c r="E202" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>1676592473279</v>
+      </c>
+      <c r="B203" s="0">
+        <v>119976910785533</v>
+      </c>
+      <c r="C203" s="0">
+        <v>337</v>
+      </c>
+      <c r="D203" s="0">
+        <v>72</v>
+      </c>
+      <c r="E203" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>1676592473288</v>
+      </c>
+      <c r="B204" s="0">
+        <v>119976919765758</v>
+      </c>
+      <c r="C204" s="0">
+        <v>336</v>
+      </c>
+      <c r="D204" s="0">
+        <v>74</v>
+      </c>
+      <c r="E204" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>1676592473297</v>
+      </c>
+      <c r="B205" s="0">
+        <v>119976928745861</v>
+      </c>
+      <c r="C205" s="0">
+        <v>336</v>
+      </c>
+      <c r="D205" s="0">
+        <v>75</v>
+      </c>
+      <c r="E205" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>1676592473307</v>
+      </c>
+      <c r="B206" s="0">
+        <v>119976937727428</v>
+      </c>
+      <c r="C206" s="0">
+        <v>337</v>
+      </c>
+      <c r="D206" s="0">
+        <v>76</v>
+      </c>
+      <c r="E206" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>1676592473316</v>
+      </c>
+      <c r="B207" s="0">
+        <v>119976946706432</v>
+      </c>
+      <c r="C207" s="0">
+        <v>338</v>
+      </c>
+      <c r="D207" s="0">
+        <v>76</v>
+      </c>
+      <c r="E207" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>1676592473324</v>
+      </c>
+      <c r="B208" s="0">
+        <v>119976955686107</v>
+      </c>
+      <c r="C208" s="0">
+        <v>339</v>
+      </c>
+      <c r="D208" s="0">
+        <v>76</v>
+      </c>
+      <c r="E208" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>1676592473334</v>
+      </c>
+      <c r="B209" s="0">
+        <v>119976964666637</v>
+      </c>
+      <c r="C209" s="0">
+        <v>340</v>
+      </c>
+      <c r="D209" s="0">
+        <v>76</v>
+      </c>
+      <c r="E209" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>1676592473343</v>
+      </c>
+      <c r="B210" s="0">
+        <v>119976973648021</v>
+      </c>
+      <c r="C210" s="0">
+        <v>342</v>
+      </c>
+      <c r="D210" s="0">
+        <v>75</v>
+      </c>
+      <c r="E210" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>1676592473352</v>
+      </c>
+      <c r="B211" s="0">
+        <v>119976982615795</v>
+      </c>
+      <c r="C211" s="0">
+        <v>343</v>
+      </c>
+      <c r="D211" s="0">
+        <v>76</v>
+      </c>
+      <c r="E211" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>1676592473360</v>
+      </c>
+      <c r="B212" s="0">
+        <v>119976991607311</v>
+      </c>
+      <c r="C212" s="0">
+        <v>344</v>
+      </c>
+      <c r="D212" s="0">
+        <v>76</v>
+      </c>
+      <c r="E212" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>1676592473370</v>
+      </c>
+      <c r="B213" s="0">
+        <v>119977000585521</v>
+      </c>
+      <c r="C213" s="0">
+        <v>347</v>
+      </c>
+      <c r="D213" s="0">
+        <v>75</v>
+      </c>
+      <c r="E213" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>1676592473379</v>
+      </c>
+      <c r="B214" s="0">
+        <v>119977009568492</v>
+      </c>
+      <c r="C214" s="0">
+        <v>351</v>
+      </c>
+      <c r="D214" s="0">
+        <v>76</v>
+      </c>
+      <c r="E214" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>1676592473387</v>
+      </c>
+      <c r="B215" s="0">
+        <v>119977018549510</v>
+      </c>
+      <c r="C215" s="0">
+        <v>355</v>
+      </c>
+      <c r="D215" s="0">
+        <v>76</v>
+      </c>
+      <c r="E215" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>1676592473397</v>
+      </c>
+      <c r="B216" s="0">
+        <v>119977027527660</v>
+      </c>
+      <c r="C216" s="0">
+        <v>359</v>
+      </c>
+      <c r="D216" s="0">
+        <v>77</v>
+      </c>
+      <c r="E216" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>1676592473406</v>
+      </c>
+      <c r="B217" s="0">
+        <v>119977036507884</v>
+      </c>
+      <c r="C217" s="0">
+        <v>2</v>
+      </c>
+      <c r="D217" s="0">
+        <v>77</v>
+      </c>
+      <c r="E217" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>1676592473415</v>
+      </c>
+      <c r="B218" s="0">
+        <v>119977045489391</v>
+      </c>
+      <c r="C218" s="0">
+        <v>4</v>
+      </c>
+      <c r="D218" s="0">
+        <v>78</v>
+      </c>
+      <c r="E218" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>1676592473423</v>
+      </c>
+      <c r="B219" s="0">
+        <v>119977054468395</v>
+      </c>
+      <c r="C219" s="0">
+        <v>6</v>
+      </c>
+      <c r="D219" s="0">
+        <v>79</v>
+      </c>
+      <c r="E219" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>1676592473433</v>
+      </c>
+      <c r="B220" s="0">
+        <v>119977063448558</v>
+      </c>
+      <c r="C220" s="0">
+        <v>7</v>
+      </c>
+      <c r="D220" s="0">
+        <v>81</v>
+      </c>
+      <c r="E220" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>1676592473441</v>
+      </c>
+      <c r="B221" s="0">
+        <v>119977072412975</v>
+      </c>
+      <c r="C221" s="0">
+        <v>8</v>
+      </c>
+      <c r="D221" s="0">
+        <v>81</v>
+      </c>
+      <c r="E221" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>1676592473450</v>
+      </c>
+      <c r="B222" s="0">
+        <v>119977081410350</v>
+      </c>
+      <c r="C222" s="0">
+        <v>10</v>
+      </c>
+      <c r="D222" s="0">
+        <v>81</v>
+      </c>
+      <c r="E222" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>1676592473460</v>
+      </c>
+      <c r="B223" s="0">
+        <v>119977090388988</v>
+      </c>
+      <c r="C223" s="0">
+        <v>13</v>
+      </c>
+      <c r="D223" s="0">
+        <v>80</v>
+      </c>
+      <c r="E223" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>1676592473469</v>
+      </c>
+      <c r="B224" s="0">
+        <v>119977099368969</v>
+      </c>
+      <c r="C224" s="0">
+        <v>15</v>
+      </c>
+      <c r="D224" s="0">
+        <v>79</v>
+      </c>
+      <c r="E224" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>1676592473478</v>
+      </c>
+      <c r="B225" s="0">
+        <v>119977108349498</v>
+      </c>
+      <c r="C225" s="0">
+        <v>17</v>
+      </c>
+      <c r="D225" s="0">
+        <v>78</v>
+      </c>
+      <c r="E225" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>1676592473486</v>
+      </c>
+      <c r="B226" s="0">
+        <v>119977117330638</v>
+      </c>
+      <c r="C226" s="0">
+        <v>20</v>
+      </c>
+      <c r="D226" s="0">
+        <v>77</v>
+      </c>
+      <c r="E226" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>1676592473496</v>
+      </c>
+      <c r="B227" s="0">
+        <v>119977126309886</v>
+      </c>
+      <c r="C227" s="0">
+        <v>21</v>
+      </c>
+      <c r="D227" s="0">
+        <v>76</v>
+      </c>
+      <c r="E227" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>1676592473504</v>
+      </c>
+      <c r="B228" s="0">
+        <v>119977135289928</v>
+      </c>
+      <c r="C228" s="0">
+        <v>24</v>
+      </c>
+      <c r="D228" s="0">
+        <v>75</v>
+      </c>
+      <c r="E228" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>1676592473514</v>
+      </c>
+      <c r="B229" s="0">
+        <v>119977144270152</v>
+      </c>
+      <c r="C229" s="0">
+        <v>26</v>
+      </c>
+      <c r="D229" s="0">
+        <v>74</v>
+      </c>
+      <c r="E229" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>1676592473523</v>
+      </c>
+      <c r="B230" s="0">
+        <v>119977153251598</v>
+      </c>
+      <c r="C230" s="0">
+        <v>29</v>
+      </c>
+      <c r="D230" s="0">
+        <v>72</v>
+      </c>
+      <c r="E230" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>1676592473531</v>
+      </c>
+      <c r="B231" s="0">
+        <v>119977162230541</v>
+      </c>
+      <c r="C231" s="0">
+        <v>31</v>
+      </c>
+      <c r="D231" s="0">
+        <v>71</v>
+      </c>
+      <c r="E231" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>1676592473541</v>
+      </c>
+      <c r="B232" s="0">
+        <v>119977171210277</v>
+      </c>
+      <c r="C232" s="0">
+        <v>34</v>
+      </c>
+      <c r="D232" s="0">
+        <v>69</v>
+      </c>
+      <c r="E232" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>1676592473549</v>
+      </c>
+      <c r="B233" s="0">
+        <v>119977180176647</v>
+      </c>
+      <c r="C233" s="0">
+        <v>36</v>
+      </c>
+      <c r="D233" s="0">
+        <v>67</v>
+      </c>
+      <c r="E233" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>1676592473559</v>
+      </c>
+      <c r="B234" s="0">
+        <v>119977189161937</v>
+      </c>
+      <c r="C234" s="0">
+        <v>40</v>
+      </c>
+      <c r="D234" s="0">
+        <v>66</v>
+      </c>
+      <c r="E234" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>1676592473568</v>
+      </c>
+      <c r="B235" s="0">
+        <v>119977198140514</v>
+      </c>
+      <c r="C235" s="0">
+        <v>44</v>
+      </c>
+      <c r="D235" s="0">
+        <v>64</v>
+      </c>
+      <c r="E235" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>1676592473576</v>
+      </c>
+      <c r="B236" s="0">
+        <v>119977207120006</v>
+      </c>
+      <c r="C236" s="0">
+        <v>48</v>
+      </c>
+      <c r="D236" s="0">
+        <v>63</v>
+      </c>
+      <c r="E236" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>1676592473586</v>
+      </c>
+      <c r="B237" s="0">
+        <v>119977216114574</v>
+      </c>
+      <c r="C237" s="0">
+        <v>52</v>
+      </c>
+      <c r="D237" s="0">
+        <v>61</v>
+      </c>
+      <c r="E237" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>1676592473594</v>
+      </c>
+      <c r="B238" s="0">
+        <v>119977225082042</v>
+      </c>
+      <c r="C238" s="0">
+        <v>56</v>
+      </c>
+      <c r="D238" s="0">
+        <v>60</v>
+      </c>
+      <c r="E238" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>1676592473604</v>
+      </c>
+      <c r="B239" s="0">
+        <v>119977234061168</v>
+      </c>
+      <c r="C239" s="0">
+        <v>60</v>
+      </c>
+      <c r="D239" s="0">
+        <v>58</v>
+      </c>
+      <c r="E239" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>1676592473613</v>
+      </c>
+      <c r="B240" s="0">
+        <v>119977243051036</v>
+      </c>
+      <c r="C240" s="0">
+        <v>62</v>
+      </c>
+      <c r="D240" s="0">
+        <v>56</v>
+      </c>
+      <c r="E240" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>1676592473621</v>
+      </c>
+      <c r="B241" s="0">
+        <v>119977252019298</v>
+      </c>
+      <c r="C241" s="0">
+        <v>64</v>
+      </c>
+      <c r="D241" s="0">
+        <v>55</v>
+      </c>
+      <c r="E241" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>1676592473631</v>
+      </c>
+      <c r="B242" s="0">
+        <v>119977261005626</v>
+      </c>
+      <c r="C242" s="0">
+        <v>65</v>
+      </c>
+      <c r="D242" s="0">
+        <v>55</v>
+      </c>
+      <c r="E242" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>1676592473638</v>
+      </c>
+      <c r="B243" s="0">
+        <v>119977269984568</v>
+      </c>
+      <c r="C243" s="0">
+        <v>67</v>
+      </c>
+      <c r="D243" s="0">
+        <v>55</v>
+      </c>
+      <c r="E243" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>1676592473648</v>
+      </c>
+      <c r="B244" s="0">
+        <v>119977278969004</v>
+      </c>
+      <c r="C244" s="0">
+        <v>69</v>
+      </c>
+      <c r="D244" s="0">
+        <v>57</v>
+      </c>
+      <c r="E244" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>1676592473657</v>
+      </c>
+      <c r="B245" s="0">
+        <v>119977287945262</v>
+      </c>
+      <c r="C245" s="0">
+        <v>70</v>
+      </c>
+      <c r="D245" s="0">
+        <v>62</v>
+      </c>
+      <c r="E245" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>1676592473665</v>
+      </c>
+      <c r="B246" s="0">
+        <v>119977296925670</v>
+      </c>
+      <c r="C246" s="0">
+        <v>68</v>
+      </c>
+      <c r="D246" s="0">
+        <v>68</v>
+      </c>
+      <c r="E246" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>1676592473675</v>
+      </c>
+      <c r="B247" s="0">
+        <v>119977305908458</v>
+      </c>
+      <c r="C247" s="0">
+        <v>66</v>
+      </c>
+      <c r="D247" s="0">
+        <v>72</v>
+      </c>
+      <c r="E247" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>1676592473683</v>
+      </c>
+      <c r="B248" s="0">
+        <v>119977314897472</v>
+      </c>
+      <c r="C248" s="0">
+        <v>65</v>
+      </c>
+      <c r="D248" s="0">
+        <v>72</v>
+      </c>
+      <c r="E248" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>1676592473693</v>
+      </c>
+      <c r="B249" s="0">
+        <v>119977323862925</v>
+      </c>
+      <c r="C249" s="0">
+        <v>66</v>
+      </c>
+      <c r="D249" s="0">
+        <v>72</v>
+      </c>
+      <c r="E249" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>1676592473701</v>
+      </c>
+      <c r="B250" s="0">
+        <v>119977332841624</v>
+      </c>
+      <c r="C250" s="0">
+        <v>69</v>
+      </c>
+      <c r="D250" s="0">
+        <v>71</v>
+      </c>
+      <c r="E250" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>1676592473710</v>
+      </c>
+      <c r="B251" s="0">
+        <v>119977341827952</v>
+      </c>
+      <c r="C251" s="0">
+        <v>71</v>
+      </c>
+      <c r="D251" s="0">
+        <v>70</v>
+      </c>
+      <c r="E251" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>1676592473720</v>
+      </c>
+      <c r="B252" s="0">
+        <v>119977350807017</v>
+      </c>
+      <c r="C252" s="0">
+        <v>73</v>
+      </c>
+      <c r="D252" s="0">
+        <v>68</v>
+      </c>
+      <c r="E252" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>1676592473729</v>
+      </c>
+      <c r="B253" s="0">
+        <v>119977359783946</v>
+      </c>
+      <c r="C253" s="0">
+        <v>75</v>
+      </c>
+      <c r="D253" s="0">
+        <v>66</v>
+      </c>
+      <c r="E253" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>1676592473738</v>
+      </c>
+      <c r="B254" s="0">
+        <v>119977368781017</v>
+      </c>
+      <c r="C254" s="0">
+        <v>77</v>
+      </c>
+      <c r="D254" s="0">
+        <v>65</v>
+      </c>
+      <c r="E254" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>1676592473747</v>
+      </c>
+      <c r="B255" s="0">
+        <v>119977377744518</v>
+      </c>
+      <c r="C255" s="0">
+        <v>79</v>
+      </c>
+      <c r="D255" s="0">
+        <v>64</v>
+      </c>
+      <c r="E255" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>1676592473756</v>
+      </c>
+      <c r="B256" s="0">
+        <v>119977386728038</v>
+      </c>
+      <c r="C256" s="0">
+        <v>80</v>
+      </c>
+      <c r="D256" s="0">
+        <v>63</v>
+      </c>
+      <c r="E256" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>1676592473765</v>
+      </c>
+      <c r="B257" s="0">
+        <v>119977395709178</v>
+      </c>
+      <c r="C257" s="0">
+        <v>82</v>
+      </c>
+      <c r="D257" s="0">
+        <v>63</v>
+      </c>
+      <c r="E257" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>1676592473773</v>
+      </c>
+      <c r="B258" s="0">
+        <v>119977404700938</v>
+      </c>
+      <c r="C258" s="0">
+        <v>84</v>
+      </c>
+      <c r="D258" s="0">
+        <v>62</v>
+      </c>
+      <c r="E258" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>1676592473783</v>
+      </c>
+      <c r="B259" s="0">
+        <v>119977413663646</v>
+      </c>
+      <c r="C259" s="0">
+        <v>86</v>
+      </c>
+      <c r="D259" s="0">
+        <v>62</v>
+      </c>
+      <c r="E259" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>1676592473792</v>
+      </c>
+      <c r="B260" s="0">
+        <v>119977422642772</v>
+      </c>
+      <c r="C260" s="0">
+        <v>87</v>
+      </c>
+      <c r="D260" s="0">
+        <v>61</v>
+      </c>
+      <c r="E260" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>1676592473800</v>
+      </c>
+      <c r="B261" s="0">
+        <v>119977431627696</v>
+      </c>
+      <c r="C261" s="0">
+        <v>90</v>
+      </c>
+      <c r="D261" s="0">
+        <v>60</v>
+      </c>
+      <c r="E261" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>1676592473809</v>
+      </c>
+      <c r="B262" s="0">
+        <v>119977440611278</v>
+      </c>
+      <c r="C262" s="0">
+        <v>92</v>
+      </c>
+      <c r="D262" s="0">
+        <v>59</v>
+      </c>
+      <c r="E262" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>1676592473818</v>
+      </c>
+      <c r="B263" s="0">
+        <v>119977449601146</v>
+      </c>
+      <c r="C263" s="0">
+        <v>94</v>
+      </c>
+      <c r="D263" s="0">
+        <v>59</v>
+      </c>
+      <c r="E263" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>1676592473827</v>
+      </c>
+      <c r="B264" s="0">
+        <v>119977458563487</v>
+      </c>
+      <c r="C264" s="0">
+        <v>95</v>
+      </c>
+      <c r="D264" s="0">
+        <v>60</v>
+      </c>
+      <c r="E264" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>1676592473836</v>
+      </c>
+      <c r="B265" s="0">
+        <v>119977467551951</v>
+      </c>
+      <c r="C265" s="0">
+        <v>97</v>
+      </c>
+      <c r="D265" s="0">
+        <v>61</v>
+      </c>
+      <c r="E265" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>1676592473845</v>
+      </c>
+      <c r="B266" s="0">
+        <v>119977476545482</v>
+      </c>
+      <c r="C266" s="0">
+        <v>99</v>
+      </c>
+      <c r="D266" s="0">
+        <v>62</v>
+      </c>
+      <c r="E266" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>1676592473854</v>
+      </c>
+      <c r="B267" s="0">
+        <v>119977485504589</v>
+      </c>
+      <c r="C267" s="0">
+        <v>101</v>
+      </c>
+      <c r="D267" s="0">
+        <v>62</v>
+      </c>
+      <c r="E267" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>1676592473863</v>
+      </c>
+      <c r="B268" s="0">
+        <v>119977494500194</v>
+      </c>
+      <c r="C268" s="0">
+        <v>103</v>
+      </c>
+      <c r="D268" s="0">
+        <v>61</v>
+      </c>
+      <c r="E268" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>1676592473873</v>
+      </c>
+      <c r="B269" s="0">
+        <v>119977503466075</v>
+      </c>
+      <c r="C269" s="0">
+        <v>106</v>
+      </c>
+      <c r="D269" s="0">
+        <v>60</v>
+      </c>
+      <c r="E269" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>1676592473881</v>
+      </c>
+      <c r="B270" s="0">
+        <v>119977512444286</v>
+      </c>
+      <c r="C270" s="0">
+        <v>108</v>
+      </c>
+      <c r="D270" s="0">
+        <v>59</v>
+      </c>
+      <c r="E270" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>1676592473891</v>
+      </c>
+      <c r="B271" s="0">
+        <v>119977521431591</v>
+      </c>
+      <c r="C271" s="0">
+        <v>111</v>
+      </c>
+      <c r="D271" s="0">
+        <v>57</v>
+      </c>
+      <c r="E271" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>1676592473900</v>
+      </c>
+      <c r="B272" s="0">
+        <v>119977530418712</v>
+      </c>
+      <c r="C272" s="0">
+        <v>113</v>
+      </c>
+      <c r="D272" s="0">
+        <v>56</v>
+      </c>
+      <c r="E272" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>1676592473908</v>
+      </c>
+      <c r="B273" s="0">
+        <v>119977539389720</v>
+      </c>
+      <c r="C273" s="0">
+        <v>115</v>
+      </c>
+      <c r="D273" s="0">
+        <v>56</v>
+      </c>
+      <c r="E273" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>1676592473917</v>
+      </c>
+      <c r="B274" s="0">
+        <v>119977548367137</v>
+      </c>
+      <c r="C274" s="0">
+        <v>117</v>
+      </c>
+      <c r="D274" s="0">
+        <v>55</v>
+      </c>
+      <c r="E274" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>1676592473926</v>
+      </c>
+      <c r="B275" s="0">
+        <v>119977557347667</v>
+      </c>
+      <c r="C275" s="0">
+        <v>119</v>
+      </c>
+      <c r="D275" s="0">
+        <v>55</v>
+      </c>
+      <c r="E275" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>1676592473936</v>
+      </c>
+      <c r="B276" s="0">
+        <v>119977566348583</v>
+      </c>
+      <c r="C276" s="0">
+        <v>120</v>
+      </c>
+      <c r="D276" s="0">
+        <v>56</v>
+      </c>
+      <c r="E276" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>1676592473944</v>
+      </c>
+      <c r="B277" s="0">
+        <v>119977575312450</v>
+      </c>
+      <c r="C277" s="0">
+        <v>121</v>
+      </c>
+      <c r="D277" s="0">
+        <v>57</v>
+      </c>
+      <c r="E277" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>1676592473954</v>
+      </c>
+      <c r="B278" s="0">
+        <v>119977584284862</v>
+      </c>
+      <c r="C278" s="0">
+        <v>122</v>
+      </c>
+      <c r="D278" s="0">
+        <v>58</v>
+      </c>
+      <c r="E278" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>1676592473963</v>
+      </c>
+      <c r="B279" s="0">
+        <v>119977593263988</v>
+      </c>
+      <c r="C279" s="0">
+        <v>122</v>
+      </c>
+      <c r="D279" s="0">
+        <v>59</v>
+      </c>
+      <c r="E279" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>1676592473971</v>
+      </c>
+      <c r="B280" s="0">
+        <v>119977602248912</v>
+      </c>
+      <c r="C280" s="0">
+        <v>123</v>
+      </c>
+      <c r="D280" s="0">
+        <v>59</v>
+      </c>
+      <c r="E280" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>1676592473980</v>
+      </c>
+      <c r="B281" s="0">
+        <v>119977611229137</v>
+      </c>
+      <c r="C281" s="0">
+        <v>123</v>
+      </c>
+      <c r="D281" s="0">
+        <v>60</v>
+      </c>
+      <c r="E281" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>1676592473989</v>
+      </c>
+      <c r="B282" s="0">
+        <v>119977620211619</v>
+      </c>
+      <c r="C282" s="0">
+        <v>124</v>
+      </c>
+      <c r="D282" s="0">
+        <v>60</v>
+      </c>
+      <c r="E282" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>1676592473999</v>
+      </c>
+      <c r="B283" s="0">
+        <v>119977629191722</v>
+      </c>
+      <c r="C283" s="0">
+        <v>125</v>
+      </c>
+      <c r="D283" s="0">
+        <v>61</v>
+      </c>
+      <c r="E283" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>1676592474007</v>
+      </c>
+      <c r="B284" s="0">
+        <v>119977638170299</v>
+      </c>
+      <c r="C284" s="0">
+        <v>126</v>
+      </c>
+      <c r="D284" s="0">
+        <v>61</v>
+      </c>
+      <c r="E284" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>1676592474017</v>
+      </c>
+      <c r="B285" s="0">
+        <v>119977647153148</v>
+      </c>
+      <c r="C285" s="0">
+        <v>127</v>
+      </c>
+      <c r="D285" s="0">
+        <v>62</v>
+      </c>
+      <c r="E285" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>1676592474025</v>
+      </c>
+      <c r="B286" s="0">
+        <v>119977656136669</v>
+      </c>
+      <c r="C286" s="0">
+        <v>129</v>
+      </c>
+      <c r="D286" s="0">
+        <v>62</v>
+      </c>
+      <c r="E286" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>1676592474034</v>
+      </c>
+      <c r="B287" s="0">
+        <v>119977665108654</v>
+      </c>
+      <c r="C287" s="0">
+        <v>130</v>
+      </c>
+      <c r="D287" s="0">
+        <v>63</v>
+      </c>
+      <c r="E287" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>1676592474043</v>
+      </c>
+      <c r="B288" s="0">
+        <v>119977674088023</v>
+      </c>
+      <c r="C288" s="0">
+        <v>132</v>
+      </c>
+      <c r="D288" s="0">
+        <v>63</v>
+      </c>
+      <c r="E288" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>1676592474053</v>
+      </c>
+      <c r="B289" s="0">
+        <v>119977683068675</v>
+      </c>
+      <c r="C289" s="0">
+        <v>134</v>
+      </c>
+      <c r="D289" s="0">
+        <v>63</v>
+      </c>
+      <c r="E289" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>1676592474062</v>
+      </c>
+      <c r="B290" s="0">
+        <v>119977692049938</v>
+      </c>
+      <c r="C290" s="0">
+        <v>136</v>
+      </c>
+      <c r="D290" s="0">
+        <v>64</v>
+      </c>
+      <c r="E290" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>1676592474070</v>
+      </c>
+      <c r="B291" s="0">
+        <v>119977701031444</v>
+      </c>
+      <c r="C291" s="0">
+        <v>139</v>
+      </c>
+      <c r="D291" s="0">
+        <v>64</v>
+      </c>
+      <c r="E291" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>1676592474080</v>
+      </c>
+      <c r="B292" s="0">
+        <v>119977710014842</v>
+      </c>
+      <c r="C292" s="0">
+        <v>141</v>
+      </c>
+      <c r="D292" s="0">
+        <v>64</v>
+      </c>
+      <c r="E292" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>1676592474088</v>
+      </c>
+      <c r="B293" s="0">
+        <v>119977718992138</v>
+      </c>
+      <c r="C293" s="0">
+        <v>144</v>
+      </c>
+      <c r="D293" s="0">
+        <v>64</v>
+      </c>
+      <c r="E293" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>1676592474096</v>
+      </c>
+      <c r="B294" s="0">
+        <v>119977727977367</v>
+      </c>
+      <c r="C294" s="0">
+        <v>147</v>
+      </c>
+      <c r="D294" s="0">
+        <v>63</v>
+      </c>
+      <c r="E294" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>1676592474106</v>
+      </c>
+      <c r="B295" s="0">
+        <v>119977736952526</v>
+      </c>
+      <c r="C295" s="0">
+        <v>149</v>
+      </c>
+      <c r="D295" s="0">
+        <v>63</v>
+      </c>
+      <c r="E295" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>1676592474115</v>
+      </c>
+      <c r="B296" s="0">
+        <v>119977745944224</v>
+      </c>
+      <c r="C296" s="0">
+        <v>153</v>
+      </c>
+      <c r="D296" s="0">
+        <v>63</v>
+      </c>
+      <c r="E296" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>1676592474123</v>
+      </c>
+      <c r="B297" s="0">
+        <v>119977754922253</v>
+      </c>
+      <c r="C297" s="0">
+        <v>156</v>
+      </c>
+      <c r="D297" s="0">
+        <v>63</v>
+      </c>
+      <c r="E297" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>1676592474133</v>
+      </c>
+      <c r="B298" s="0">
+        <v>119977763902660</v>
+      </c>
+      <c r="C298" s="0">
+        <v>159</v>
+      </c>
+      <c r="D298" s="0">
+        <v>64</v>
+      </c>
+      <c r="E298" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>1676592474142</v>
+      </c>
+      <c r="B299" s="0">
+        <v>119977772881908</v>
+      </c>
+      <c r="C299" s="0">
+        <v>161</v>
+      </c>
+      <c r="D299" s="0">
+        <v>64</v>
+      </c>
+      <c r="E299" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>1676592474150</v>
+      </c>
+      <c r="B300" s="0">
+        <v>119977781862193</v>
+      </c>
+      <c r="C300" s="0">
+        <v>162</v>
+      </c>
+      <c r="D300" s="0">
+        <v>65</v>
+      </c>
+      <c r="E300" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>1676592474159</v>
+      </c>
+      <c r="B301" s="0">
+        <v>119977790842357</v>
+      </c>
+      <c r="C301" s="0">
+        <v>163</v>
+      </c>
+      <c r="D301" s="0">
+        <v>65</v>
+      </c>
+      <c r="E301" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>1676592474168</v>
+      </c>
+      <c r="B302" s="0">
+        <v>119977799823863</v>
+      </c>
+      <c r="C302" s="0">
+        <v>164</v>
+      </c>
+      <c r="D302" s="0">
+        <v>65</v>
+      </c>
+      <c r="E302" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>1676592474178</v>
+      </c>
+      <c r="B303" s="0">
+        <v>119977808802379</v>
+      </c>
+      <c r="C303" s="0">
+        <v>165</v>
+      </c>
+      <c r="D303" s="0">
+        <v>64</v>
+      </c>
+      <c r="E303" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>1676592474187</v>
+      </c>
+      <c r="B304" s="0">
+        <v>119977817765392</v>
+      </c>
+      <c r="C304" s="0">
+        <v>166</v>
+      </c>
+      <c r="D304" s="0">
+        <v>63</v>
+      </c>
+      <c r="E304" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>1676592474195</v>
+      </c>
+      <c r="B305" s="0">
+        <v>119977826763011</v>
+      </c>
+      <c r="C305" s="0">
+        <v>166</v>
+      </c>
+      <c r="D305" s="0">
+        <v>63</v>
+      </c>
+      <c r="E305" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>1676592474204</v>
+      </c>
+      <c r="B306" s="0">
+        <v>119977835744274</v>
+      </c>
+      <c r="C306" s="0">
+        <v>167</v>
+      </c>
+      <c r="D306" s="0">
+        <v>62</v>
+      </c>
+      <c r="E306" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>1676592474213</v>
+      </c>
+      <c r="B307" s="0">
+        <v>119977844723522</v>
+      </c>
+      <c r="C307" s="0">
+        <v>167</v>
+      </c>
+      <c r="D307" s="0">
+        <v>62</v>
+      </c>
+      <c r="E307" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>1676592474222</v>
+      </c>
+      <c r="B308" s="0">
+        <v>119977853700511</v>
+      </c>
+      <c r="C308" s="0">
+        <v>167</v>
+      </c>
+      <c r="D308" s="0">
+        <v>62</v>
+      </c>
+      <c r="E308" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>1676592474231</v>
+      </c>
+      <c r="B309" s="0">
+        <v>119977862672008</v>
+      </c>
+      <c r="C309" s="0">
+        <v>168</v>
+      </c>
+      <c r="D309" s="0">
+        <v>62</v>
+      </c>
+      <c r="E309" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>1676592474240</v>
+      </c>
+      <c r="B310" s="0">
+        <v>119977871668102</v>
+      </c>
+      <c r="C310" s="0">
+        <v>168</v>
+      </c>
+      <c r="D310" s="0">
+        <v>61</v>
+      </c>
+      <c r="E310" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>1676592474250</v>
+      </c>
+      <c r="B311" s="0">
+        <v>119977880643810</v>
+      </c>
+      <c r="C311" s="0">
+        <v>169</v>
+      </c>
+      <c r="D311" s="0">
+        <v>61</v>
+      </c>
+      <c r="E311" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>1676592474258</v>
+      </c>
+      <c r="B312" s="0">
+        <v>119977889623607</v>
+      </c>
+      <c r="C312" s="0">
+        <v>169</v>
+      </c>
+      <c r="D312" s="0">
+        <v>61</v>
+      </c>
+      <c r="E312" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>1676592474267</v>
+      </c>
+      <c r="B313" s="0">
+        <v>119977898604198</v>
+      </c>
+      <c r="C313" s="0">
+        <v>170</v>
+      </c>
+      <c r="D313" s="0">
+        <v>60</v>
+      </c>
+      <c r="E313" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>1676592474276</v>
+      </c>
+      <c r="B314" s="0">
+        <v>119977907585582</v>
+      </c>
+      <c r="C314" s="0">
+        <v>171</v>
+      </c>
+      <c r="D314" s="0">
+        <v>60</v>
+      </c>
+      <c r="E314" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>1676592474286</v>
+      </c>
+      <c r="B315" s="0">
+        <v>119977916564525</v>
+      </c>
+      <c r="C315" s="0">
+        <v>172</v>
+      </c>
+      <c r="D315" s="0">
+        <v>60</v>
+      </c>
+      <c r="E315" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>1676592474294</v>
+      </c>
+      <c r="B316" s="0">
+        <v>119977925544994</v>
+      </c>
+      <c r="C316" s="0">
+        <v>173</v>
+      </c>
+      <c r="D316" s="0">
+        <v>60</v>
+      </c>
+      <c r="E316" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>1676592474303</v>
+      </c>
+      <c r="B317" s="0">
+        <v>119977934524730</v>
+      </c>
+      <c r="C317" s="0">
+        <v>174</v>
+      </c>
+      <c r="D317" s="0">
+        <v>60</v>
+      </c>
+      <c r="E317" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>1676592474312</v>
+      </c>
+      <c r="B318" s="0">
+        <v>119977943506541</v>
+      </c>
+      <c r="C318" s="0">
+        <v>175</v>
+      </c>
+      <c r="D318" s="0">
+        <v>60</v>
+      </c>
+      <c r="E318" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>1676592474321</v>
+      </c>
+      <c r="B319" s="0">
+        <v>119977952473522</v>
+      </c>
+      <c r="C319" s="0">
+        <v>176</v>
+      </c>
+      <c r="D319" s="0">
+        <v>60</v>
+      </c>
+      <c r="E319" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>1676592474331</v>
+      </c>
+      <c r="B320" s="0">
+        <v>119977961465099</v>
+      </c>
+      <c r="C320" s="0">
+        <v>177</v>
+      </c>
+      <c r="D320" s="0">
+        <v>60</v>
+      </c>
+      <c r="E320" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>1676592474339</v>
+      </c>
+      <c r="B321" s="0">
+        <v>119977970445384</v>
+      </c>
+      <c r="C321" s="0">
+        <v>177</v>
+      </c>
+      <c r="D321" s="0">
+        <v>60</v>
+      </c>
+      <c r="E321" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0">
+        <v>1676592474349</v>
+      </c>
+      <c r="B322" s="0">
+        <v>119977979426647</v>
+      </c>
+      <c r="C322" s="0">
+        <v>177</v>
+      </c>
+      <c r="D322" s="0">
+        <v>60</v>
+      </c>
+      <c r="E322" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0">
+        <v>1676592474358</v>
+      </c>
+      <c r="B323" s="0">
+        <v>119977988405895</v>
+      </c>
+      <c r="C323" s="0">
+        <v>177</v>
+      </c>
+      <c r="D323" s="0">
+        <v>60</v>
+      </c>
+      <c r="E323" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0">
+        <v>1676592474367</v>
+      </c>
+      <c r="B324" s="0">
+        <v>119977997385814</v>
+      </c>
+      <c r="C324" s="0">
+        <v>177</v>
+      </c>
+      <c r="D324" s="0">
+        <v>60</v>
+      </c>
+      <c r="E324" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0">
+        <v>1676592474375</v>
+      </c>
+      <c r="B325" s="0">
+        <v>119978006366039</v>
+      </c>
+      <c r="C325" s="0">
+        <v>177</v>
+      </c>
+      <c r="D325" s="0">
+        <v>60</v>
+      </c>
+      <c r="E325" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0">
+        <v>1676592474384</v>
+      </c>
+      <c r="B326" s="0">
+        <v>119978015347545</v>
+      </c>
+      <c r="C326" s="0">
+        <v>177</v>
+      </c>
+      <c r="D326" s="0">
+        <v>60</v>
+      </c>
+      <c r="E326" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0">
+        <v>1676592474393</v>
+      </c>
+      <c r="B327" s="0">
+        <v>119978024326732</v>
+      </c>
+      <c r="C327" s="0">
+        <v>177</v>
+      </c>
+      <c r="D327" s="0">
+        <v>61</v>
+      </c>
+      <c r="E327" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0">
+        <v>1676592474403</v>
+      </c>
+      <c r="B328" s="0">
+        <v>119978033306469</v>
+      </c>
+      <c r="C328" s="0">
+        <v>177</v>
+      </c>
+      <c r="D328" s="0">
+        <v>61</v>
+      </c>
+      <c r="E328" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0">
+        <v>1676592474412</v>
+      </c>
+      <c r="B329" s="0">
+        <v>119978042286754</v>
+      </c>
+      <c r="C329" s="0">
+        <v>177</v>
+      </c>
+      <c r="D329" s="0">
+        <v>62</v>
+      </c>
+      <c r="E329" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0">
+        <v>1676592474421</v>
+      </c>
+      <c r="B330" s="0">
+        <v>119978051267894</v>
+      </c>
+      <c r="C330" s="0">
+        <v>177</v>
+      </c>
+      <c r="D330" s="0">
+        <v>63</v>
+      </c>
+      <c r="E330" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0">
+        <v>1676592474429</v>
+      </c>
+      <c r="B331" s="0">
+        <v>119978060247142</v>
+      </c>
+      <c r="C331" s="0">
+        <v>177</v>
+      </c>
+      <c r="D331" s="0">
+        <v>64</v>
+      </c>
+      <c r="E331" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0">
+        <v>1676592474438</v>
+      </c>
+      <c r="B332" s="0">
+        <v>119978069227184</v>
+      </c>
+      <c r="C332" s="0">
+        <v>177</v>
+      </c>
+      <c r="D332" s="0">
+        <v>65</v>
+      </c>
+      <c r="E332" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0">
+        <v>1676592474447</v>
+      </c>
+      <c r="B333" s="0">
+        <v>119978078204478</v>
+      </c>
+      <c r="C333" s="0">
+        <v>177</v>
+      </c>
+      <c r="D333" s="0">
+        <v>66</v>
+      </c>
+      <c r="E333" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0">
+        <v>1676592474456</v>
+      </c>
+      <c r="B334" s="0">
+        <v>119978087176830</v>
+      </c>
+      <c r="C334" s="0">
+        <v>177</v>
+      </c>
+      <c r="D334" s="0">
+        <v>67</v>
+      </c>
+      <c r="E334" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0">
+        <v>1676592474466</v>
+      </c>
+      <c r="B335" s="0">
+        <v>119978096170726</v>
+      </c>
+      <c r="C335" s="0">
+        <v>177</v>
+      </c>
+      <c r="D335" s="0">
+        <v>68</v>
+      </c>
+      <c r="E335" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0">
+        <v>1676592474474</v>
+      </c>
+      <c r="B336" s="0">
+        <v>119978105147594</v>
+      </c>
+      <c r="C336" s="0">
+        <v>178</v>
+      </c>
+      <c r="D336" s="0">
+        <v>68</v>
+      </c>
+      <c r="E336" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0">
+        <v>1676592474484</v>
+      </c>
+      <c r="B337" s="0">
+        <v>119978114128063</v>
+      </c>
+      <c r="C337" s="0">
+        <v>178</v>
+      </c>
+      <c r="D337" s="0">
+        <v>69</v>
+      </c>
+      <c r="E337" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0">
+        <v>1676592474493</v>
+      </c>
+      <c r="B338" s="0">
+        <v>119978123109264</v>
+      </c>
+      <c r="C338" s="0">
+        <v>178</v>
+      </c>
+      <c r="D338" s="0">
+        <v>69</v>
+      </c>
+      <c r="E338" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0">
+        <v>1676592474502</v>
+      </c>
+      <c r="B339" s="0">
+        <v>119978132088207</v>
+      </c>
+      <c r="C339" s="0">
+        <v>179</v>
+      </c>
+      <c r="D339" s="0">
+        <v>69</v>
+      </c>
+      <c r="E339" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0">
+        <v>1676592474510</v>
+      </c>
+      <c r="B340" s="0">
+        <v>119978141068431</v>
+      </c>
+      <c r="C340" s="0">
+        <v>179</v>
+      </c>
+      <c r="D340" s="0">
+        <v>69</v>
+      </c>
+      <c r="E340" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0">
+        <v>1676592474519</v>
+      </c>
+      <c r="B341" s="0">
+        <v>119978150048900</v>
+      </c>
+      <c r="C341" s="0">
+        <v>180</v>
+      </c>
+      <c r="D341" s="0">
+        <v>70</v>
+      </c>
+      <c r="E341" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0">
+        <v>1676592474529</v>
+      </c>
+      <c r="B342" s="0">
+        <v>119978159030101</v>
+      </c>
+      <c r="C342" s="0">
+        <v>180</v>
+      </c>
+      <c r="D342" s="0">
+        <v>70</v>
+      </c>
+      <c r="E342" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0">
+        <v>1676592474537</v>
+      </c>
+      <c r="B343" s="0">
+        <v>119978168006236</v>
+      </c>
+      <c r="C343" s="0">
+        <v>180</v>
+      </c>
+      <c r="D343" s="0">
+        <v>70</v>
+      </c>
+      <c r="E343" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0">
+        <v>1676592474545</v>
+      </c>
+      <c r="B344" s="0">
+        <v>119978176988842</v>
+      </c>
+      <c r="C344" s="0">
+        <v>181</v>
+      </c>
+      <c r="D344" s="0">
+        <v>70</v>
+      </c>
+      <c r="E344" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0">
+        <v>1676592474554</v>
+      </c>
+      <c r="B345" s="0">
+        <v>119978185972240</v>
+      </c>
+      <c r="C345" s="0">
+        <v>181</v>
+      </c>
+      <c r="D345" s="0">
+        <v>70</v>
+      </c>
+      <c r="E345" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0">
+        <v>1676592474564</v>
+      </c>
+      <c r="B346" s="0">
+        <v>119978194950572</v>
+      </c>
+      <c r="C346" s="0">
+        <v>181</v>
+      </c>
+      <c r="D346" s="0">
+        <v>71</v>
+      </c>
+      <c r="E346" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0">
+        <v>1676592474572</v>
+      </c>
+      <c r="B347" s="0">
+        <v>119978203929576</v>
+      </c>
+      <c r="C347" s="0">
+        <v>182</v>
+      </c>
+      <c r="D347" s="0">
+        <v>71</v>
+      </c>
+      <c r="E347" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0">
+        <v>1676592474581</v>
+      </c>
+      <c r="B348" s="0">
+        <v>119978212909740</v>
+      </c>
+      <c r="C348" s="0">
+        <v>183</v>
+      </c>
+      <c r="D348" s="0">
+        <v>72</v>
+      </c>
+      <c r="E348" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0">
+        <v>1676592474590</v>
+      </c>
+      <c r="B349" s="0">
+        <v>119978221889476</v>
+      </c>
+      <c r="C349" s="0">
+        <v>184</v>
+      </c>
+      <c r="D349" s="0">
+        <v>72</v>
+      </c>
+      <c r="E349" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0">
+        <v>1676592474600</v>
+      </c>
+      <c r="B350" s="0">
+        <v>119978230871471</v>
+      </c>
+      <c r="C350" s="0">
+        <v>185</v>
+      </c>
+      <c r="D350" s="0">
+        <v>73</v>
+      </c>
+      <c r="E350" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0">
+        <v>1676592474608</v>
+      </c>
+      <c r="B351" s="0">
+        <v>119978239850231</v>
+      </c>
+      <c r="C351" s="0">
+        <v>187</v>
+      </c>
+      <c r="D351" s="0">
+        <v>73</v>
+      </c>
+      <c r="E351" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0">
+        <v>1676592474617</v>
+      </c>
+      <c r="B352" s="0">
+        <v>119978248830211</v>
+      </c>
+      <c r="C352" s="0">
+        <v>188</v>
+      </c>
+      <c r="D352" s="0">
+        <v>73</v>
+      </c>
+      <c r="E352" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0">
+        <v>1676592474627</v>
+      </c>
+      <c r="B353" s="0">
+        <v>119978257810619</v>
+      </c>
+      <c r="C353" s="0">
+        <v>189</v>
+      </c>
+      <c r="D353" s="0">
+        <v>74</v>
+      </c>
+      <c r="E353" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0">
+        <v>1676592474636</v>
+      </c>
+      <c r="B354" s="0">
+        <v>119978266791820</v>
+      </c>
+      <c r="C354" s="0">
+        <v>191</v>
+      </c>
+      <c r="D354" s="0">
+        <v>74</v>
+      </c>
+      <c r="E354" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0">
+        <v>1676592474644</v>
+      </c>
+      <c r="B355" s="0">
+        <v>119978275770885</v>
+      </c>
+      <c r="C355" s="0">
+        <v>193</v>
+      </c>
+      <c r="D355" s="0">
+        <v>74</v>
+      </c>
+      <c r="E355" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0">
+        <v>1676592474653</v>
+      </c>
+      <c r="B356" s="0">
+        <v>119978284750743</v>
+      </c>
+      <c r="C356" s="0">
+        <v>195</v>
+      </c>
+      <c r="D356" s="0">
+        <v>74</v>
+      </c>
+      <c r="E356" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0">
+        <v>1676592474663</v>
+      </c>
+      <c r="B357" s="0">
+        <v>119978293731029</v>
+      </c>
+      <c r="C357" s="0">
+        <v>196</v>
+      </c>
+      <c r="D357" s="0">
+        <v>74</v>
+      </c>
+      <c r="E357" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0">
+        <v>1676592474671</v>
+      </c>
+      <c r="B358" s="0">
+        <v>119978302701183</v>
+      </c>
+      <c r="C358" s="0">
+        <v>199</v>
+      </c>
+      <c r="D358" s="0">
+        <v>74</v>
+      </c>
+      <c r="E358" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0">
+        <v>1676592474680</v>
+      </c>
+      <c r="B359" s="0">
+        <v>119978311691783</v>
+      </c>
+      <c r="C359" s="0">
+        <v>200</v>
+      </c>
+      <c r="D359" s="0">
+        <v>74</v>
+      </c>
+      <c r="E359" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0">
+        <v>1676592474689</v>
+      </c>
+      <c r="B360" s="0">
+        <v>119978320671398</v>
+      </c>
+      <c r="C360" s="0">
+        <v>203</v>
+      </c>
+      <c r="D360" s="0">
+        <v>74</v>
+      </c>
+      <c r="E360" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0">
+        <v>1676592474698</v>
+      </c>
+      <c r="B361" s="0">
+        <v>119978329651927</v>
+      </c>
+      <c r="C361" s="0">
+        <v>204</v>
+      </c>
+      <c r="D361" s="0">
+        <v>74</v>
+      </c>
+      <c r="E361" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0">
+        <v>1676592474708</v>
+      </c>
+      <c r="B362" s="0">
+        <v>119978338632945</v>
+      </c>
+      <c r="C362" s="0">
+        <v>207</v>
+      </c>
+      <c r="D362" s="0">
+        <v>74</v>
+      </c>
+      <c r="E362" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0">
+        <v>1676592474716</v>
+      </c>
+      <c r="B363" s="0">
+        <v>119978347609141</v>
+      </c>
+      <c r="C363" s="0">
+        <v>208</v>
+      </c>
+      <c r="D363" s="0">
+        <v>74</v>
+      </c>
+      <c r="E363" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0">
+        <v>1676592474725</v>
+      </c>
+      <c r="B364" s="0">
+        <v>119978356592357</v>
+      </c>
+      <c r="C364" s="0">
+        <v>209</v>
+      </c>
+      <c r="D364" s="0">
+        <v>75</v>
+      </c>
+      <c r="E364" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0">
+        <v>1676592474735</v>
+      </c>
+      <c r="B365" s="0">
+        <v>119978365575329</v>
+      </c>
+      <c r="C365" s="0">
+        <v>210</v>
+      </c>
+      <c r="D365" s="0">
+        <v>75</v>
+      </c>
+      <c r="E365" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0">
+        <v>1676592474744</v>
+      </c>
+      <c r="B366" s="0">
+        <v>119978374553844</v>
+      </c>
+      <c r="C366" s="0">
+        <v>211</v>
+      </c>
+      <c r="D366" s="0">
+        <v>76</v>
+      </c>
+      <c r="E366" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0">
+        <v>1676592474753</v>
+      </c>
+      <c r="B367" s="0">
+        <v>119978383532604</v>
+      </c>
+      <c r="C367" s="0">
+        <v>211</v>
+      </c>
+      <c r="D367" s="0">
+        <v>76</v>
+      </c>
+      <c r="E367" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0">
+        <v>1676592474762</v>
+      </c>
+      <c r="B368" s="0">
+        <v>119978392500805</v>
+      </c>
+      <c r="C368" s="0">
+        <v>212</v>
+      </c>
+      <c r="D368" s="0">
+        <v>76</v>
+      </c>
+      <c r="E368" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0">
+        <v>1676592474770</v>
+      </c>
+      <c r="B369" s="0">
+        <v>119978401493053</v>
+      </c>
+      <c r="C369" s="0">
+        <v>213</v>
+      </c>
+      <c r="D369" s="0">
+        <v>76</v>
+      </c>
+      <c r="E369" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0">
+        <v>1676592474780</v>
+      </c>
+      <c r="B370" s="0">
+        <v>119978410474193</v>
+      </c>
+      <c r="C370" s="0">
+        <v>213</v>
+      </c>
+      <c r="D370" s="0">
+        <v>75</v>
+      </c>
+      <c r="E370" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0">
+        <v>1676592474789</v>
+      </c>
+      <c r="B371" s="0">
+        <v>119978419452953</v>
+      </c>
+      <c r="C371" s="0">
+        <v>214</v>
+      </c>
+      <c r="D371" s="0">
+        <v>75</v>
+      </c>
+      <c r="E371" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0">
+        <v>1676592474798</v>
+      </c>
+      <c r="B372" s="0">
+        <v>119978428430614</v>
+      </c>
+      <c r="C372" s="0">
+        <v>214</v>
+      </c>
+      <c r="D372" s="0">
+        <v>74</v>
+      </c>
+      <c r="E372" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0">
+        <v>1676592474807</v>
+      </c>
+      <c r="B373" s="0">
+        <v>119978437413646</v>
+      </c>
+      <c r="C373" s="0">
+        <v>214</v>
+      </c>
+      <c r="D373" s="0">
+        <v>74</v>
+      </c>
+      <c r="E373" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0">
+        <v>1676592474816</v>
+      </c>
+      <c r="B374" s="0">
+        <v>119978446398265</v>
+      </c>
+      <c r="C374" s="0">
+        <v>213</v>
+      </c>
+      <c r="D374" s="0">
+        <v>73</v>
+      </c>
+      <c r="E374" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0">
+        <v>1676592474825</v>
+      </c>
+      <c r="B375" s="0">
+        <v>119978455373912</v>
+      </c>
+      <c r="C375" s="0">
+        <v>213</v>
+      </c>
+      <c r="D375" s="0">
+        <v>73</v>
+      </c>
+      <c r="E375" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0">
+        <v>1676592474833</v>
+      </c>
+      <c r="B376" s="0">
+        <v>119978464353527</v>
+      </c>
+      <c r="C376" s="0">
+        <v>212</v>
+      </c>
+      <c r="D376" s="0">
+        <v>73</v>
+      </c>
+      <c r="E376" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0">
+        <v>1676592474842</v>
+      </c>
+      <c r="B377" s="0">
+        <v>119978473334056</v>
+      </c>
+      <c r="C377" s="0">
+        <v>212</v>
+      </c>
+      <c r="D377" s="0">
+        <v>74</v>
+      </c>
+      <c r="E377" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0">
+        <v>1676592474852</v>
+      </c>
+      <c r="B378" s="0">
+        <v>119978482315013</v>
+      </c>
+      <c r="C378" s="0">
+        <v>212</v>
+      </c>
+      <c r="D378" s="0">
+        <v>75</v>
+      </c>
+      <c r="E378" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0">
+        <v>1676592474861</v>
+      </c>
+      <c r="B379" s="0">
+        <v>119978491294506</v>
+      </c>
+      <c r="C379" s="0">
+        <v>212</v>
+      </c>
+      <c r="D379" s="0">
+        <v>75</v>
+      </c>
+      <c r="E379" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0">
+        <v>1676592474870</v>
+      </c>
+      <c r="B380" s="0">
+        <v>119978500274608</v>
+      </c>
+      <c r="C380" s="0">
+        <v>213</v>
+      </c>
+      <c r="D380" s="0">
+        <v>75</v>
+      </c>
+      <c r="E380" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0">
+        <v>1676592474878</v>
+      </c>
+      <c r="B381" s="0">
+        <v>119978509255016</v>
+      </c>
+      <c r="C381" s="0">
+        <v>213</v>
+      </c>
+      <c r="D381" s="0">
+        <v>75</v>
+      </c>
+      <c r="E381" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0">
+        <v>1676592474888</v>
+      </c>
+      <c r="B382" s="0">
+        <v>119978518233287</v>
+      </c>
+      <c r="C382" s="0">
+        <v>214</v>
+      </c>
+      <c r="D382" s="0">
+        <v>74</v>
+      </c>
+      <c r="E382" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0">
+        <v>1676592474896</v>
+      </c>
+      <c r="B383" s="0">
+        <v>119978527215160</v>
+      </c>
+      <c r="C383" s="0">
+        <v>215</v>
+      </c>
+      <c r="D383" s="0">
+        <v>73</v>
+      </c>
+      <c r="E383" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0">
+        <v>1676592474905</v>
+      </c>
+      <c r="B384" s="0">
+        <v>119978536197764</v>
+      </c>
+      <c r="C384" s="0">
+        <v>216</v>
+      </c>
+      <c r="D384" s="0">
+        <v>73</v>
+      </c>
+      <c r="E384" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0">
+        <v>1676592474914</v>
+      </c>
+      <c r="B385" s="0">
+        <v>119978545175365</v>
+      </c>
+      <c r="C385" s="0">
+        <v>217</v>
+      </c>
+      <c r="D385" s="0">
+        <v>72</v>
+      </c>
+      <c r="E385" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>1676592474923</v>
+      </c>
+      <c r="B386" s="0">
+        <v>119978554156871</v>
+      </c>
+      <c r="C386" s="0">
+        <v>218</v>
+      </c>
+      <c r="D386" s="0">
+        <v>72</v>
+      </c>
+      <c r="E386" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>1676592474932</v>
+      </c>
+      <c r="B387" s="0">
+        <v>119978563135875</v>
+      </c>
+      <c r="C387" s="0">
+        <v>218</v>
+      </c>
+      <c r="D387" s="0">
+        <v>71</v>
+      </c>
+      <c r="E387" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>1676592474941</v>
+      </c>
+      <c r="B388" s="0">
+        <v>119978572115795</v>
+      </c>
+      <c r="C388" s="0">
+        <v>219</v>
+      </c>
+      <c r="D388" s="0">
+        <v>71</v>
+      </c>
+      <c r="E388" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>1676592474950</v>
+      </c>
+      <c r="B389" s="0">
+        <v>119978581096080</v>
+      </c>
+      <c r="C389" s="0">
+        <v>219</v>
+      </c>
+      <c r="D389" s="0">
+        <v>71</v>
+      </c>
+      <c r="E389" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>1676592474960</v>
+      </c>
+      <c r="B390" s="0">
+        <v>119978590077525</v>
+      </c>
+      <c r="C390" s="0">
+        <v>220</v>
+      </c>
+      <c r="D390" s="0">
+        <v>71</v>
+      </c>
+      <c r="E390" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>1676592474968</v>
+      </c>
+      <c r="B391" s="0">
+        <v>119978599056224</v>
+      </c>
+      <c r="C391" s="0">
+        <v>220</v>
+      </c>
+      <c r="D391" s="0">
+        <v>71</v>
+      </c>
+      <c r="E391" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>1676592474977</v>
+      </c>
+      <c r="B392" s="0">
+        <v>119978608033275</v>
+      </c>
+      <c r="C392" s="0">
+        <v>220</v>
+      </c>
+      <c r="D392" s="0">
+        <v>71</v>
+      </c>
+      <c r="E392" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>1676592474986</v>
+      </c>
+      <c r="B393" s="0">
+        <v>119978617016674</v>
+      </c>
+      <c r="C393" s="0">
+        <v>221</v>
+      </c>
+      <c r="D393" s="0">
+        <v>71</v>
+      </c>
+      <c r="E393" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>1676592474996</v>
+      </c>
+      <c r="B394" s="0">
+        <v>119978626000805</v>
+      </c>
+      <c r="C394" s="0">
+        <v>221</v>
+      </c>
+      <c r="D394" s="0">
+        <v>71</v>
+      </c>
+      <c r="E394" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>1676592475004</v>
+      </c>
+      <c r="B395" s="0">
+        <v>119978634976940</v>
+      </c>
+      <c r="C395" s="0">
+        <v>222</v>
+      </c>
+      <c r="D395" s="0">
+        <v>71</v>
+      </c>
+      <c r="E395" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>1676592475012</v>
+      </c>
+      <c r="B396" s="0">
+        <v>119978643957103</v>
+      </c>
+      <c r="C396" s="0">
+        <v>223</v>
+      </c>
+      <c r="D396" s="0">
+        <v>71</v>
+      </c>
+      <c r="E396" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>1676592475022</v>
+      </c>
+      <c r="B397" s="0">
+        <v>119978652937084</v>
+      </c>
+      <c r="C397" s="0">
+        <v>224</v>
+      </c>
+      <c r="D397" s="0">
+        <v>71</v>
+      </c>
+      <c r="E397" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>1676592475031</v>
+      </c>
+      <c r="B398" s="0">
+        <v>119978661918834</v>
+      </c>
+      <c r="C398" s="0">
+        <v>225</v>
+      </c>
+      <c r="D398" s="0">
+        <v>71</v>
+      </c>
+      <c r="E398" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>1676592475039</v>
+      </c>
+      <c r="B399" s="0">
+        <v>119978670897533</v>
+      </c>
+      <c r="C399" s="0">
+        <v>226</v>
+      </c>
+      <c r="D399" s="0">
+        <v>71</v>
+      </c>
+      <c r="E399" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>1676592475048</v>
+      </c>
+      <c r="B400" s="0">
+        <v>119978679877269</v>
+      </c>
+      <c r="C400" s="0">
+        <v>228</v>
+      </c>
+      <c r="D400" s="0">
+        <v>71</v>
+      </c>
+      <c r="E400" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>1676592475058</v>
+      </c>
+      <c r="B401" s="0">
+        <v>119978688857799</v>
+      </c>
+      <c r="C401" s="0">
+        <v>229</v>
+      </c>
+      <c r="D401" s="0">
+        <v>71</v>
+      </c>
+      <c r="E401" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>1676592475067</v>
+      </c>
+      <c r="B402" s="0">
+        <v>119978697839183</v>
+      </c>
+      <c r="C402" s="0">
+        <v>231</v>
+      </c>
+      <c r="D402" s="0">
+        <v>71</v>
+      </c>
+      <c r="E402" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>1676592475076</v>
+      </c>
+      <c r="B403" s="0">
+        <v>119978706818187</v>
+      </c>
+      <c r="C403" s="0">
+        <v>232</v>
+      </c>
+      <c r="D403" s="0">
+        <v>71</v>
+      </c>
+      <c r="E403" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>1676592475085</v>
+      </c>
+      <c r="B404" s="0">
+        <v>119978715797924</v>
+      </c>
+      <c r="C404" s="0">
+        <v>233</v>
+      </c>
+      <c r="D404" s="0">
+        <v>71</v>
+      </c>
+      <c r="E404" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>1676592475093</v>
+      </c>
+      <c r="B405" s="0">
+        <v>119978724778453</v>
+      </c>
+      <c r="C405" s="0">
+        <v>234</v>
+      </c>
+      <c r="D405" s="0">
+        <v>71</v>
+      </c>
+      <c r="E405" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>1676592475103</v>
+      </c>
+      <c r="B406" s="0">
+        <v>119978733759959</v>
+      </c>
+      <c r="C406" s="0">
+        <v>236</v>
+      </c>
+      <c r="D406" s="0">
+        <v>71</v>
+      </c>
+      <c r="E406" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>1676592475112</v>
+      </c>
+      <c r="B407" s="0">
+        <v>119978742728343</v>
+      </c>
+      <c r="C407" s="0">
+        <v>237</v>
+      </c>
+      <c r="D407" s="0">
+        <v>72</v>
+      </c>
+      <c r="E407" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>1676592475120</v>
+      </c>
+      <c r="B408" s="0">
+        <v>119978751718578</v>
+      </c>
+      <c r="C408" s="0">
+        <v>237</v>
+      </c>
+      <c r="D408" s="0">
+        <v>72</v>
+      </c>
+      <c r="E408" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>1676592475130</v>
+      </c>
+      <c r="B409" s="0">
+        <v>119978760698802</v>
+      </c>
+      <c r="C409" s="0">
+        <v>238</v>
+      </c>
+      <c r="D409" s="0">
+        <v>72</v>
+      </c>
+      <c r="E409" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>1676592475139</v>
+      </c>
+      <c r="B410" s="0">
+        <v>119978769680248</v>
+      </c>
+      <c r="C410" s="0">
+        <v>238</v>
+      </c>
+      <c r="D410" s="0">
+        <v>72</v>
+      </c>
+      <c r="E410" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>1676592475148</v>
+      </c>
+      <c r="B411" s="0">
+        <v>119978778659313</v>
+      </c>
+      <c r="C411" s="0">
+        <v>239</v>
+      </c>
+      <c r="D411" s="0">
+        <v>72</v>
+      </c>
+      <c r="E411" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>1676592475157</v>
+      </c>
+      <c r="B412" s="0">
+        <v>119978787639476</v>
+      </c>
+      <c r="C412" s="0">
+        <v>239</v>
+      </c>
+      <c r="D412" s="0">
+        <v>72</v>
+      </c>
+      <c r="E412" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>1676592475166</v>
+      </c>
+      <c r="B413" s="0">
+        <v>119978796619457</v>
+      </c>
+      <c r="C413" s="0">
+        <v>239</v>
+      </c>
+      <c r="D413" s="0">
+        <v>72</v>
+      </c>
+      <c r="E413" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>1676592475174</v>
+      </c>
+      <c r="B414" s="0">
+        <v>119978805601207</v>
+      </c>
+      <c r="C414" s="0">
+        <v>239</v>
+      </c>
+      <c r="D414" s="0">
+        <v>72</v>
+      </c>
+      <c r="E414" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>1676592475183</v>
+      </c>
+      <c r="B415" s="0">
+        <v>119978814579906</v>
+      </c>
+      <c r="C415" s="0">
+        <v>239</v>
+      </c>
+      <c r="D415" s="0">
+        <v>72</v>
+      </c>
+      <c r="E415" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>1676592475193</v>
+      </c>
+      <c r="B416" s="0">
+        <v>119978823559887</v>
+      </c>
+      <c r="C416" s="0">
+        <v>240</v>
+      </c>
+      <c r="D416" s="0">
+        <v>72</v>
+      </c>
+      <c r="E416" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>1676592475201</v>
+      </c>
+      <c r="B417" s="0">
+        <v>119978832528392</v>
+      </c>
+      <c r="C417" s="0">
+        <v>240</v>
+      </c>
+      <c r="D417" s="0">
+        <v>72</v>
+      </c>
+      <c r="E417" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>1676592475210</v>
+      </c>
+      <c r="B418" s="0">
+        <v>119978841521617</v>
+      </c>
+      <c r="C418" s="0">
+        <v>240</v>
+      </c>
+      <c r="D418" s="0">
+        <v>72</v>
+      </c>
+      <c r="E418" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>1676592475219</v>
+      </c>
+      <c r="B419" s="0">
+        <v>119978850500621</v>
+      </c>
+      <c r="C419" s="0">
+        <v>241</v>
+      </c>
+      <c r="D419" s="0">
+        <v>72</v>
+      </c>
+      <c r="E419" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>1676592475228</v>
+      </c>
+      <c r="B420" s="0">
+        <v>119978859480541</v>
+      </c>
+      <c r="C420" s="0">
+        <v>241</v>
+      </c>
+      <c r="D420" s="0">
+        <v>72</v>
+      </c>
+      <c r="E420" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>1676592475238</v>
+      </c>
+      <c r="B421" s="0">
+        <v>119978868460826</v>
+      </c>
+      <c r="C421" s="0">
+        <v>242</v>
+      </c>
+      <c r="D421" s="0">
+        <v>72</v>
+      </c>
+      <c r="E421" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>1676592475247</v>
+      </c>
+      <c r="B422" s="0">
+        <v>119978877442210</v>
+      </c>
+      <c r="C422" s="0">
+        <v>242</v>
+      </c>
+      <c r="D422" s="0">
+        <v>72</v>
+      </c>
+      <c r="E422" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>1676592475256</v>
+      </c>
+      <c r="B423" s="0">
+        <v>119978886420970</v>
+      </c>
+      <c r="C423" s="0">
+        <v>243</v>
+      </c>
+      <c r="D423" s="0">
+        <v>72</v>
+      </c>
+      <c r="E423" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>1676592475264</v>
+      </c>
+      <c r="B424" s="0">
+        <v>119978895400951</v>
+      </c>
+      <c r="C424" s="0">
+        <v>244</v>
+      </c>
+      <c r="D424" s="0">
+        <v>72</v>
+      </c>
+      <c r="E424" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>1676592475274</v>
+      </c>
+      <c r="B425" s="0">
+        <v>119978904381420</v>
+      </c>
+      <c r="C425" s="0">
+        <v>244</v>
+      </c>
+      <c r="D425" s="0">
+        <v>72</v>
+      </c>
+      <c r="E425" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>1676592475282</v>
+      </c>
+      <c r="B426" s="0">
+        <v>119978913362438</v>
+      </c>
+      <c r="C426" s="0">
+        <v>245</v>
+      </c>
+      <c r="D426" s="0">
+        <v>72</v>
+      </c>
+      <c r="E426" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>1676592475291</v>
+      </c>
+      <c r="B427" s="0">
+        <v>119978922341686</v>
+      </c>
+      <c r="C427" s="0">
+        <v>245</v>
+      </c>
+      <c r="D427" s="0">
+        <v>72</v>
+      </c>
+      <c r="E427" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>1676592475301</v>
+      </c>
+      <c r="B428" s="0">
+        <v>119978931321910</v>
+      </c>
+      <c r="C428" s="0">
+        <v>245</v>
+      </c>
+      <c r="D428" s="0">
+        <v>72</v>
+      </c>
+      <c r="E428" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>1676592475309</v>
+      </c>
+      <c r="B429" s="0">
+        <v>119978940301830</v>
+      </c>
+      <c r="C429" s="0">
+        <v>246</v>
+      </c>
+      <c r="D429" s="0">
+        <v>72</v>
+      </c>
+      <c r="E429" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>1676592475318</v>
+      </c>
+      <c r="B430" s="0">
+        <v>119978949283519</v>
+      </c>
+      <c r="C430" s="0">
+        <v>246</v>
+      </c>
+      <c r="D430" s="0">
+        <v>72</v>
+      </c>
+      <c r="E430" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>1676592475327</v>
+      </c>
+      <c r="B431" s="0">
+        <v>119978958248180</v>
+      </c>
+      <c r="C431" s="0">
+        <v>246</v>
+      </c>
+      <c r="D431" s="0">
+        <v>72</v>
+      </c>
+      <c r="E431" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>1676592475336</v>
+      </c>
+      <c r="B432" s="0">
+        <v>119978967242260</v>
+      </c>
+      <c r="C432" s="0">
+        <v>246</v>
+      </c>
+      <c r="D432" s="0">
+        <v>72</v>
+      </c>
+      <c r="E432" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>1676592475346</v>
+      </c>
+      <c r="B433" s="0">
+        <v>119978976225414</v>
+      </c>
+      <c r="C433" s="0">
+        <v>246</v>
+      </c>
+      <c r="D433" s="0">
+        <v>72</v>
+      </c>
+      <c r="E433" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>1676592475355</v>
+      </c>
+      <c r="B434" s="0">
+        <v>119978985203685</v>
+      </c>
+      <c r="C434" s="0">
+        <v>246</v>
+      </c>
+      <c r="D434" s="0">
+        <v>72</v>
+      </c>
+      <c r="E434" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>1676592475364</v>
+      </c>
+      <c r="B435" s="0">
+        <v>119978994182689</v>
+      </c>
+      <c r="C435" s="0">
+        <v>246</v>
+      </c>
+      <c r="D435" s="0">
+        <v>72</v>
+      </c>
+      <c r="E435" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>1676592475372</v>
+      </c>
+      <c r="B436" s="0">
+        <v>119979003162914</v>
+      </c>
+      <c r="C436" s="0">
+        <v>246</v>
+      </c>
+      <c r="D436" s="0">
+        <v>72</v>
+      </c>
+      <c r="E436" s="0">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/Data/IMUReadingsClip/DefenderDrag3bOutside.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag3bOutside.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -176,6 +176,69 @@
   <si>
     <t>pitchDeg</t>
   </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -210,11 +273,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -223,6 +289,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,37 +319,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -15526,19 +15595,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -22954,19 +23023,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
